--- a/result/АНИМОНДА.xlsx
+++ b/result/АНИМОНДА.xlsx
@@ -2460,7 +2460,7 @@
         <v>509</v>
       </c>
       <c r="D2">
-        <v>933</v>
+        <v>544</v>
       </c>
       <c r="E2" t="s">
         <v>683</v>
@@ -2480,7 +2480,7 @@
         <v>509</v>
       </c>
       <c r="D3">
-        <v>792</v>
+        <v>596</v>
       </c>
       <c r="E3" t="s">
         <v>683</v>
@@ -2500,7 +2500,7 @@
         <v>510</v>
       </c>
       <c r="D4">
-        <v>800</v>
+        <v>547</v>
       </c>
       <c r="E4" t="s">
         <v>683</v>
@@ -2520,7 +2520,7 @@
         <v>510</v>
       </c>
       <c r="D5">
-        <v>889</v>
+        <v>642</v>
       </c>
       <c r="E5" t="s">
         <v>683</v>
@@ -2540,7 +2540,7 @@
         <v>510</v>
       </c>
       <c r="D6">
-        <v>936</v>
+        <v>727</v>
       </c>
       <c r="E6" t="s">
         <v>683</v>
@@ -2560,7 +2560,7 @@
         <v>510</v>
       </c>
       <c r="D7">
-        <v>520</v>
+        <v>922</v>
       </c>
       <c r="E7" t="s">
         <v>683</v>
@@ -2614,7 +2614,7 @@
         <v>512</v>
       </c>
       <c r="D10">
-        <v>866</v>
+        <v>812</v>
       </c>
       <c r="E10" t="s">
         <v>683</v>
@@ -2634,7 +2634,7 @@
         <v>512</v>
       </c>
       <c r="D11">
-        <v>873</v>
+        <v>657</v>
       </c>
       <c r="E11" t="s">
         <v>683</v>
@@ -2654,7 +2654,7 @@
         <v>512</v>
       </c>
       <c r="D12">
-        <v>977</v>
+        <v>687</v>
       </c>
       <c r="E12" t="s">
         <v>683</v>
@@ -2674,7 +2674,7 @@
         <v>513</v>
       </c>
       <c r="D13">
-        <v>985</v>
+        <v>801</v>
       </c>
       <c r="E13" t="s">
         <v>683</v>
@@ -2694,7 +2694,7 @@
         <v>513</v>
       </c>
       <c r="D14">
-        <v>883</v>
+        <v>558</v>
       </c>
       <c r="E14" t="s">
         <v>683</v>
@@ -2714,7 +2714,7 @@
         <v>513</v>
       </c>
       <c r="D15">
-        <v>936</v>
+        <v>640</v>
       </c>
       <c r="E15" t="s">
         <v>683</v>
@@ -2734,7 +2734,7 @@
         <v>513</v>
       </c>
       <c r="D16">
-        <v>666</v>
+        <v>917</v>
       </c>
       <c r="E16" t="s">
         <v>683</v>
@@ -2754,7 +2754,7 @@
         <v>514</v>
       </c>
       <c r="D17">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="E17" t="s">
         <v>683</v>
@@ -2774,7 +2774,7 @@
         <v>514</v>
       </c>
       <c r="D18">
-        <v>646</v>
+        <v>864</v>
       </c>
       <c r="E18" t="s">
         <v>683</v>
@@ -2794,7 +2794,7 @@
         <v>514</v>
       </c>
       <c r="D19">
-        <v>853</v>
+        <v>702</v>
       </c>
       <c r="E19" t="s">
         <v>683</v>
@@ -2814,7 +2814,7 @@
         <v>515</v>
       </c>
       <c r="D20">
-        <v>635</v>
+        <v>556</v>
       </c>
       <c r="E20" t="s">
         <v>683</v>
@@ -2834,7 +2834,7 @@
         <v>515</v>
       </c>
       <c r="D21">
-        <v>818</v>
+        <v>594</v>
       </c>
       <c r="E21" t="s">
         <v>683</v>
@@ -2854,7 +2854,7 @@
         <v>515</v>
       </c>
       <c r="D22">
-        <v>607</v>
+        <v>923</v>
       </c>
       <c r="E22" t="s">
         <v>683</v>
@@ -2874,7 +2874,7 @@
         <v>515</v>
       </c>
       <c r="D23">
-        <v>823</v>
+        <v>662</v>
       </c>
       <c r="E23" t="s">
         <v>683</v>
@@ -2894,7 +2894,7 @@
         <v>516</v>
       </c>
       <c r="D24">
-        <v>563</v>
+        <v>832</v>
       </c>
       <c r="E24" t="s">
         <v>683</v>
@@ -2914,7 +2914,7 @@
         <v>516</v>
       </c>
       <c r="D25">
-        <v>966</v>
+        <v>635</v>
       </c>
       <c r="E25" t="s">
         <v>683</v>
@@ -2934,7 +2934,7 @@
         <v>516</v>
       </c>
       <c r="D26">
-        <v>982</v>
+        <v>518</v>
       </c>
       <c r="E26" t="s">
         <v>683</v>
@@ -2954,7 +2954,7 @@
         <v>517</v>
       </c>
       <c r="D27">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="E27" t="s">
         <v>683</v>
@@ -2974,7 +2974,7 @@
         <v>517</v>
       </c>
       <c r="D28">
-        <v>525</v>
+        <v>989</v>
       </c>
       <c r="E28" t="s">
         <v>683</v>
@@ -2994,7 +2994,7 @@
         <v>517</v>
       </c>
       <c r="D29">
-        <v>672</v>
+        <v>561</v>
       </c>
       <c r="E29" t="s">
         <v>683</v>
@@ -3014,7 +3014,7 @@
         <v>517</v>
       </c>
       <c r="D30">
-        <v>651</v>
+        <v>778</v>
       </c>
       <c r="E30" t="s">
         <v>683</v>
@@ -3034,7 +3034,7 @@
         <v>518</v>
       </c>
       <c r="D31">
-        <v>823</v>
+        <v>662</v>
       </c>
       <c r="E31" t="s">
         <v>683</v>
@@ -3054,7 +3054,7 @@
         <v>518</v>
       </c>
       <c r="D32">
-        <v>594</v>
+        <v>517</v>
       </c>
       <c r="E32" t="s">
         <v>683</v>
@@ -3074,7 +3074,7 @@
         <v>518</v>
       </c>
       <c r="D33">
-        <v>936</v>
+        <v>866</v>
       </c>
       <c r="E33" t="s">
         <v>683</v>
@@ -3094,7 +3094,7 @@
         <v>519</v>
       </c>
       <c r="D34">
-        <v>948</v>
+        <v>655</v>
       </c>
       <c r="E34" t="s">
         <v>683</v>
@@ -3114,7 +3114,7 @@
         <v>519</v>
       </c>
       <c r="D35">
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="E35" t="s">
         <v>683</v>
@@ -3134,7 +3134,7 @@
         <v>519</v>
       </c>
       <c r="D36">
-        <v>996</v>
+        <v>933</v>
       </c>
       <c r="E36" t="s">
         <v>683</v>
@@ -3154,7 +3154,7 @@
         <v>519</v>
       </c>
       <c r="D37">
-        <v>996</v>
+        <v>545</v>
       </c>
       <c r="E37" t="s">
         <v>683</v>
@@ -3174,7 +3174,7 @@
         <v>520</v>
       </c>
       <c r="D38">
-        <v>934</v>
+        <v>503</v>
       </c>
       <c r="E38" t="s">
         <v>683</v>
@@ -3194,7 +3194,7 @@
         <v>521</v>
       </c>
       <c r="D39">
-        <v>780</v>
+        <v>585</v>
       </c>
       <c r="E39" t="s">
         <v>683</v>
@@ -3214,7 +3214,7 @@
         <v>521</v>
       </c>
       <c r="D40">
-        <v>563</v>
+        <v>730</v>
       </c>
       <c r="E40" t="s">
         <v>683</v>
@@ -3234,7 +3234,7 @@
         <v>521</v>
       </c>
       <c r="D41">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="E41" t="s">
         <v>683</v>
@@ -3254,7 +3254,7 @@
         <v>522</v>
       </c>
       <c r="D42">
-        <v>621</v>
+        <v>818</v>
       </c>
       <c r="E42" t="s">
         <v>683</v>
@@ -3274,7 +3274,7 @@
         <v>522</v>
       </c>
       <c r="D43">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="E43" t="s">
         <v>683</v>
@@ -3294,7 +3294,7 @@
         <v>522</v>
       </c>
       <c r="D44">
-        <v>875</v>
+        <v>996</v>
       </c>
       <c r="E44" t="s">
         <v>683</v>
@@ -3314,7 +3314,7 @@
         <v>522</v>
       </c>
       <c r="D45">
-        <v>946</v>
+        <v>517</v>
       </c>
       <c r="E45" t="s">
         <v>683</v>
@@ -3334,7 +3334,7 @@
         <v>523</v>
       </c>
       <c r="D46">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="E46" t="s">
         <v>683</v>
@@ -3354,7 +3354,7 @@
         <v>523</v>
       </c>
       <c r="D47">
-        <v>932</v>
+        <v>571</v>
       </c>
       <c r="E47" t="s">
         <v>683</v>
@@ -3374,7 +3374,7 @@
         <v>523</v>
       </c>
       <c r="D48">
-        <v>632</v>
+        <v>593</v>
       </c>
       <c r="E48" t="s">
         <v>683</v>
@@ -3394,7 +3394,7 @@
         <v>524</v>
       </c>
       <c r="D49">
-        <v>905</v>
+        <v>504</v>
       </c>
       <c r="E49" t="s">
         <v>683</v>
@@ -3414,7 +3414,7 @@
         <v>524</v>
       </c>
       <c r="D50">
-        <v>840</v>
+        <v>986</v>
       </c>
       <c r="E50" t="s">
         <v>683</v>
@@ -3434,7 +3434,7 @@
         <v>524</v>
       </c>
       <c r="D51">
-        <v>558</v>
+        <v>727</v>
       </c>
       <c r="E51" t="s">
         <v>683</v>
@@ -3454,7 +3454,7 @@
         <v>524</v>
       </c>
       <c r="D52">
-        <v>867</v>
+        <v>838</v>
       </c>
       <c r="E52" t="s">
         <v>683</v>
@@ -3474,7 +3474,7 @@
         <v>525</v>
       </c>
       <c r="D53">
-        <v>908</v>
+        <v>591</v>
       </c>
       <c r="E53" t="s">
         <v>683</v>
@@ -3494,7 +3494,7 @@
         <v>525</v>
       </c>
       <c r="D54">
-        <v>660</v>
+        <v>877</v>
       </c>
       <c r="E54" t="s">
         <v>683</v>
@@ -3514,7 +3514,7 @@
         <v>526</v>
       </c>
       <c r="D55">
-        <v>727</v>
+        <v>917</v>
       </c>
       <c r="E55" t="s">
         <v>683</v>
@@ -3534,7 +3534,7 @@
         <v>526</v>
       </c>
       <c r="D56">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E56" t="s">
         <v>683</v>
@@ -3554,7 +3554,7 @@
         <v>527</v>
       </c>
       <c r="D57">
-        <v>885</v>
+        <v>759</v>
       </c>
       <c r="E57" t="s">
         <v>683</v>
@@ -3574,7 +3574,7 @@
         <v>527</v>
       </c>
       <c r="D58">
-        <v>670</v>
+        <v>945</v>
       </c>
       <c r="E58" t="s">
         <v>683</v>
@@ -3594,7 +3594,7 @@
         <v>527</v>
       </c>
       <c r="D59">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="E59" t="s">
         <v>683</v>
@@ -3614,7 +3614,7 @@
         <v>527</v>
       </c>
       <c r="D60">
-        <v>820</v>
+        <v>625</v>
       </c>
       <c r="E60" t="s">
         <v>683</v>
@@ -3634,7 +3634,7 @@
         <v>528</v>
       </c>
       <c r="D61">
-        <v>576</v>
+        <v>682</v>
       </c>
       <c r="E61" t="s">
         <v>683</v>
@@ -3654,7 +3654,7 @@
         <v>528</v>
       </c>
       <c r="D62">
-        <v>810</v>
+        <v>646</v>
       </c>
       <c r="E62" t="s">
         <v>683</v>
@@ -3674,7 +3674,7 @@
         <v>528</v>
       </c>
       <c r="D63">
-        <v>501</v>
+        <v>578</v>
       </c>
       <c r="E63" t="s">
         <v>683</v>
@@ -3694,7 +3694,7 @@
         <v>529</v>
       </c>
       <c r="D64">
-        <v>750</v>
+        <v>582</v>
       </c>
       <c r="E64" t="s">
         <v>683</v>
@@ -3714,7 +3714,7 @@
         <v>529</v>
       </c>
       <c r="D65">
-        <v>721</v>
+        <v>593</v>
       </c>
       <c r="E65" t="s">
         <v>683</v>
@@ -3734,7 +3734,7 @@
         <v>529</v>
       </c>
       <c r="D66">
-        <v>866</v>
+        <v>914</v>
       </c>
       <c r="E66" t="s">
         <v>683</v>
@@ -3754,7 +3754,7 @@
         <v>529</v>
       </c>
       <c r="D67">
-        <v>768</v>
+        <v>955</v>
       </c>
       <c r="E67" t="s">
         <v>683</v>
@@ -3774,7 +3774,7 @@
         <v>530</v>
       </c>
       <c r="D68">
-        <v>984</v>
+        <v>599</v>
       </c>
       <c r="E68" t="s">
         <v>683</v>
@@ -3794,7 +3794,7 @@
         <v>530</v>
       </c>
       <c r="D69">
-        <v>706</v>
+        <v>992</v>
       </c>
       <c r="E69" t="s">
         <v>683</v>
@@ -3814,7 +3814,7 @@
         <v>530</v>
       </c>
       <c r="D70">
-        <v>684</v>
+        <v>819</v>
       </c>
       <c r="E70" t="s">
         <v>683</v>
@@ -3834,7 +3834,7 @@
         <v>531</v>
       </c>
       <c r="D71">
-        <v>734</v>
+        <v>905</v>
       </c>
       <c r="E71" t="s">
         <v>683</v>
@@ -3854,7 +3854,7 @@
         <v>531</v>
       </c>
       <c r="D72">
-        <v>793</v>
+        <v>845</v>
       </c>
       <c r="E72" t="s">
         <v>683</v>
@@ -3874,7 +3874,7 @@
         <v>531</v>
       </c>
       <c r="D73">
-        <v>811</v>
+        <v>987</v>
       </c>
       <c r="E73" t="s">
         <v>683</v>
@@ -3894,7 +3894,7 @@
         <v>531</v>
       </c>
       <c r="D74">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="E74" t="s">
         <v>683</v>
@@ -3914,7 +3914,7 @@
         <v>532</v>
       </c>
       <c r="D75">
-        <v>781</v>
+        <v>890</v>
       </c>
       <c r="E75" t="s">
         <v>683</v>
@@ -3934,7 +3934,7 @@
         <v>533</v>
       </c>
       <c r="D76">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="E76" t="s">
         <v>683</v>
@@ -3954,7 +3954,7 @@
         <v>533</v>
       </c>
       <c r="D77">
-        <v>542</v>
+        <v>955</v>
       </c>
       <c r="E77" t="s">
         <v>683</v>
@@ -3974,7 +3974,7 @@
         <v>533</v>
       </c>
       <c r="D78">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E78" t="s">
         <v>683</v>
@@ -3994,7 +3994,7 @@
         <v>534</v>
       </c>
       <c r="D79">
-        <v>989</v>
+        <v>639</v>
       </c>
       <c r="E79" t="s">
         <v>683</v>
@@ -4014,7 +4014,7 @@
         <v>534</v>
       </c>
       <c r="D80">
-        <v>623</v>
+        <v>832</v>
       </c>
       <c r="E80" t="s">
         <v>683</v>
@@ -4034,7 +4034,7 @@
         <v>534</v>
       </c>
       <c r="D81">
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="E81" t="s">
         <v>683</v>
@@ -4054,7 +4054,7 @@
         <v>534</v>
       </c>
       <c r="D82">
-        <v>515</v>
+        <v>718</v>
       </c>
       <c r="E82" t="s">
         <v>683</v>
@@ -4074,7 +4074,7 @@
         <v>535</v>
       </c>
       <c r="D83">
-        <v>680</v>
+        <v>888</v>
       </c>
       <c r="E83" t="s">
         <v>683</v>
@@ -4094,7 +4094,7 @@
         <v>536</v>
       </c>
       <c r="D84">
-        <v>937</v>
+        <v>595</v>
       </c>
       <c r="E84" t="s">
         <v>683</v>
@@ -4522,7 +4522,7 @@
         <v>545</v>
       </c>
       <c r="D109">
-        <v>777</v>
+        <v>935</v>
       </c>
       <c r="E109" t="s">
         <v>683</v>
@@ -4542,7 +4542,7 @@
         <v>545</v>
       </c>
       <c r="D110">
-        <v>953</v>
+        <v>511</v>
       </c>
       <c r="E110" t="s">
         <v>683</v>
@@ -4562,7 +4562,7 @@
         <v>546</v>
       </c>
       <c r="D111">
-        <v>508</v>
+        <v>782</v>
       </c>
       <c r="E111" t="s">
         <v>683</v>
@@ -4582,7 +4582,7 @@
         <v>546</v>
       </c>
       <c r="D112">
-        <v>795</v>
+        <v>997</v>
       </c>
       <c r="E112" t="s">
         <v>683</v>
@@ -4602,7 +4602,7 @@
         <v>546</v>
       </c>
       <c r="D113">
-        <v>750</v>
+        <v>566</v>
       </c>
       <c r="E113" t="s">
         <v>683</v>
@@ -4622,7 +4622,7 @@
         <v>546</v>
       </c>
       <c r="D114">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="E114" t="s">
         <v>683</v>
@@ -4642,7 +4642,7 @@
         <v>547</v>
       </c>
       <c r="D115">
-        <v>647</v>
+        <v>528</v>
       </c>
       <c r="E115" t="s">
         <v>683</v>
@@ -4662,7 +4662,7 @@
         <v>547</v>
       </c>
       <c r="D116">
-        <v>912</v>
+        <v>873</v>
       </c>
       <c r="E116" t="s">
         <v>683</v>
@@ -4682,7 +4682,7 @@
         <v>548</v>
       </c>
       <c r="D117">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="E117" t="s">
         <v>683</v>
@@ -4702,7 +4702,7 @@
         <v>548</v>
       </c>
       <c r="D118">
-        <v>854</v>
+        <v>604</v>
       </c>
       <c r="E118" t="s">
         <v>683</v>
@@ -4722,7 +4722,7 @@
         <v>548</v>
       </c>
       <c r="D119">
-        <v>676</v>
+        <v>589</v>
       </c>
       <c r="E119" t="s">
         <v>683</v>
@@ -4742,7 +4742,7 @@
         <v>548</v>
       </c>
       <c r="D120">
-        <v>812</v>
+        <v>507</v>
       </c>
       <c r="E120" t="s">
         <v>683</v>
@@ -4762,7 +4762,7 @@
         <v>549</v>
       </c>
       <c r="D121">
-        <v>513</v>
+        <v>890</v>
       </c>
       <c r="E121" t="s">
         <v>683</v>
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="D122">
-        <v>549</v>
+        <v>933</v>
       </c>
       <c r="E122" t="s">
         <v>683</v>
@@ -4802,7 +4802,7 @@
         <v>549</v>
       </c>
       <c r="D123">
-        <v>778</v>
+        <v>966</v>
       </c>
       <c r="E123" t="s">
         <v>683</v>
@@ -4822,7 +4822,7 @@
         <v>550</v>
       </c>
       <c r="D124">
-        <v>845</v>
+        <v>955</v>
       </c>
       <c r="E124" t="s">
         <v>683</v>
@@ -4842,7 +4842,7 @@
         <v>550</v>
       </c>
       <c r="D125">
-        <v>811</v>
+        <v>529</v>
       </c>
       <c r="E125" t="s">
         <v>683</v>
@@ -4862,7 +4862,7 @@
         <v>550</v>
       </c>
       <c r="D126">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E126" t="s">
         <v>683</v>
@@ -4882,7 +4882,7 @@
         <v>550</v>
       </c>
       <c r="D127">
-        <v>670</v>
+        <v>952</v>
       </c>
       <c r="E127" t="s">
         <v>683</v>
@@ -4902,7 +4902,7 @@
         <v>551</v>
       </c>
       <c r="D128">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="E128" t="s">
         <v>683</v>
@@ -4922,7 +4922,7 @@
         <v>551</v>
       </c>
       <c r="D129">
-        <v>538</v>
+        <v>952</v>
       </c>
       <c r="E129" t="s">
         <v>683</v>
@@ -4942,7 +4942,7 @@
         <v>551</v>
       </c>
       <c r="D130">
-        <v>772</v>
+        <v>898</v>
       </c>
       <c r="E130" t="s">
         <v>683</v>
@@ -4962,7 +4962,7 @@
         <v>551</v>
       </c>
       <c r="D131">
-        <v>891</v>
+        <v>568</v>
       </c>
       <c r="E131" t="s">
         <v>683</v>
@@ -4982,7 +4982,7 @@
         <v>552</v>
       </c>
       <c r="D132">
-        <v>780</v>
+        <v>734</v>
       </c>
       <c r="E132" t="s">
         <v>683</v>
@@ -5002,7 +5002,7 @@
         <v>552</v>
       </c>
       <c r="D133">
-        <v>793</v>
+        <v>932</v>
       </c>
       <c r="E133" t="s">
         <v>683</v>
@@ -5022,7 +5022,7 @@
         <v>552</v>
       </c>
       <c r="D134">
-        <v>622</v>
+        <v>961</v>
       </c>
       <c r="E134" t="s">
         <v>683</v>
@@ -5042,7 +5042,7 @@
         <v>552</v>
       </c>
       <c r="D135">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="E135" t="s">
         <v>683</v>
@@ -5062,7 +5062,7 @@
         <v>553</v>
       </c>
       <c r="D136">
-        <v>991</v>
+        <v>693</v>
       </c>
       <c r="E136" t="s">
         <v>683</v>
@@ -5082,7 +5082,7 @@
         <v>553</v>
       </c>
       <c r="D137">
-        <v>901</v>
+        <v>680</v>
       </c>
       <c r="E137" t="s">
         <v>683</v>
@@ -5102,7 +5102,7 @@
         <v>553</v>
       </c>
       <c r="D138">
-        <v>688</v>
+        <v>502</v>
       </c>
       <c r="E138" t="s">
         <v>683</v>
@@ -5122,7 +5122,7 @@
         <v>553</v>
       </c>
       <c r="D139">
-        <v>865</v>
+        <v>713</v>
       </c>
       <c r="E139" t="s">
         <v>683</v>
@@ -5142,7 +5142,7 @@
         <v>554</v>
       </c>
       <c r="D140">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="E140" t="s">
         <v>683</v>
@@ -5162,7 +5162,7 @@
         <v>554</v>
       </c>
       <c r="D141">
-        <v>665</v>
+        <v>579</v>
       </c>
       <c r="E141" t="s">
         <v>683</v>
@@ -5182,7 +5182,7 @@
         <v>554</v>
       </c>
       <c r="D142">
-        <v>748</v>
+        <v>965</v>
       </c>
       <c r="E142" t="s">
         <v>683</v>
@@ -5202,7 +5202,7 @@
         <v>555</v>
       </c>
       <c r="D143">
-        <v>918</v>
+        <v>689</v>
       </c>
       <c r="E143" t="s">
         <v>683</v>
@@ -5222,7 +5222,7 @@
         <v>555</v>
       </c>
       <c r="D144">
-        <v>943</v>
+        <v>846</v>
       </c>
       <c r="E144" t="s">
         <v>683</v>
@@ -5242,7 +5242,7 @@
         <v>555</v>
       </c>
       <c r="D145">
-        <v>954</v>
+        <v>711</v>
       </c>
       <c r="E145" t="s">
         <v>683</v>
@@ -5262,7 +5262,7 @@
         <v>555</v>
       </c>
       <c r="D146">
-        <v>557</v>
+        <v>891</v>
       </c>
       <c r="E146" t="s">
         <v>683</v>
@@ -5282,7 +5282,7 @@
         <v>556</v>
       </c>
       <c r="D147">
-        <v>564</v>
+        <v>735</v>
       </c>
       <c r="E147" t="s">
         <v>683</v>
@@ -5302,7 +5302,7 @@
         <v>556</v>
       </c>
       <c r="D148">
-        <v>961</v>
+        <v>791</v>
       </c>
       <c r="E148" t="s">
         <v>683</v>
@@ -5322,7 +5322,7 @@
         <v>556</v>
       </c>
       <c r="D149">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="E149" t="s">
         <v>683</v>
@@ -5342,7 +5342,7 @@
         <v>556</v>
       </c>
       <c r="D150">
-        <v>783</v>
+        <v>731</v>
       </c>
       <c r="E150" t="s">
         <v>683</v>
@@ -5362,7 +5362,7 @@
         <v>557</v>
       </c>
       <c r="D151">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="E151" t="s">
         <v>683</v>
@@ -5382,7 +5382,7 @@
         <v>557</v>
       </c>
       <c r="D152">
-        <v>867</v>
+        <v>702</v>
       </c>
       <c r="E152" t="s">
         <v>683</v>
@@ -5402,7 +5402,7 @@
         <v>557</v>
       </c>
       <c r="D153">
-        <v>888</v>
+        <v>824</v>
       </c>
       <c r="E153" t="s">
         <v>683</v>
@@ -5422,7 +5422,7 @@
         <v>557</v>
       </c>
       <c r="D154">
-        <v>823</v>
+        <v>638</v>
       </c>
       <c r="E154" t="s">
         <v>683</v>
@@ -5442,7 +5442,7 @@
         <v>558</v>
       </c>
       <c r="D155">
-        <v>752</v>
+        <v>549</v>
       </c>
       <c r="E155" t="s">
         <v>683</v>
@@ -5462,7 +5462,7 @@
         <v>558</v>
       </c>
       <c r="D156">
-        <v>557</v>
+        <v>980</v>
       </c>
       <c r="E156" t="s">
         <v>683</v>
@@ -5482,7 +5482,7 @@
         <v>558</v>
       </c>
       <c r="D157">
-        <v>526</v>
+        <v>616</v>
       </c>
       <c r="E157" t="s">
         <v>683</v>
@@ -5502,7 +5502,7 @@
         <v>558</v>
       </c>
       <c r="D158">
-        <v>786</v>
+        <v>667</v>
       </c>
       <c r="E158" t="s">
         <v>683</v>
@@ -5522,7 +5522,7 @@
         <v>559</v>
       </c>
       <c r="D159">
-        <v>903</v>
+        <v>633</v>
       </c>
       <c r="E159" t="s">
         <v>683</v>
@@ -5542,7 +5542,7 @@
         <v>559</v>
       </c>
       <c r="D160">
-        <v>714</v>
+        <v>562</v>
       </c>
       <c r="E160" t="s">
         <v>683</v>
@@ -5562,7 +5562,7 @@
         <v>559</v>
       </c>
       <c r="D161">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="E161" t="s">
         <v>683</v>
@@ -5582,7 +5582,7 @@
         <v>559</v>
       </c>
       <c r="D162">
-        <v>848</v>
+        <v>959</v>
       </c>
       <c r="E162" t="s">
         <v>683</v>
@@ -5602,7 +5602,7 @@
         <v>560</v>
       </c>
       <c r="D163">
-        <v>793</v>
+        <v>524</v>
       </c>
       <c r="E163" t="s">
         <v>683</v>
@@ -5622,7 +5622,7 @@
         <v>560</v>
       </c>
       <c r="D164">
-        <v>852</v>
+        <v>513</v>
       </c>
       <c r="E164" t="s">
         <v>683</v>
@@ -5642,7 +5642,7 @@
         <v>560</v>
       </c>
       <c r="D165">
-        <v>819</v>
+        <v>523</v>
       </c>
       <c r="E165" t="s">
         <v>683</v>
@@ -5662,7 +5662,7 @@
         <v>560</v>
       </c>
       <c r="D166">
-        <v>743</v>
+        <v>690</v>
       </c>
       <c r="E166" t="s">
         <v>683</v>
@@ -5682,7 +5682,7 @@
         <v>561</v>
       </c>
       <c r="D167">
-        <v>972</v>
+        <v>871</v>
       </c>
       <c r="E167" t="s">
         <v>683</v>
@@ -5702,7 +5702,7 @@
         <v>561</v>
       </c>
       <c r="D168">
-        <v>510</v>
+        <v>694</v>
       </c>
       <c r="E168" t="s">
         <v>683</v>
@@ -5722,7 +5722,7 @@
         <v>561</v>
       </c>
       <c r="D169">
-        <v>782</v>
+        <v>628</v>
       </c>
       <c r="E169" t="s">
         <v>683</v>
@@ -5742,7 +5742,7 @@
         <v>562</v>
       </c>
       <c r="D170">
-        <v>684</v>
+        <v>535</v>
       </c>
       <c r="E170" t="s">
         <v>683</v>
@@ -5762,7 +5762,7 @@
         <v>562</v>
       </c>
       <c r="D171">
-        <v>723</v>
+        <v>547</v>
       </c>
       <c r="E171" t="s">
         <v>683</v>
@@ -5782,7 +5782,7 @@
         <v>562</v>
       </c>
       <c r="D172">
-        <v>528</v>
+        <v>996</v>
       </c>
       <c r="E172" t="s">
         <v>683</v>
@@ -5802,7 +5802,7 @@
         <v>562</v>
       </c>
       <c r="D173">
-        <v>612</v>
+        <v>890</v>
       </c>
       <c r="E173" t="s">
         <v>683</v>
@@ -5822,7 +5822,7 @@
         <v>563</v>
       </c>
       <c r="D174">
-        <v>827</v>
+        <v>767</v>
       </c>
       <c r="E174" t="s">
         <v>683</v>
@@ -5842,7 +5842,7 @@
         <v>563</v>
       </c>
       <c r="D175">
-        <v>960</v>
+        <v>678</v>
       </c>
       <c r="E175" t="s">
         <v>683</v>
@@ -5862,7 +5862,7 @@
         <v>563</v>
       </c>
       <c r="D176">
-        <v>588</v>
+        <v>774</v>
       </c>
       <c r="E176" t="s">
         <v>683</v>
@@ -5882,7 +5882,7 @@
         <v>563</v>
       </c>
       <c r="D177">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="E177" t="s">
         <v>683</v>
@@ -5902,7 +5902,7 @@
         <v>564</v>
       </c>
       <c r="D178">
-        <v>654</v>
+        <v>745</v>
       </c>
       <c r="E178" t="s">
         <v>683</v>
@@ -5922,7 +5922,7 @@
         <v>564</v>
       </c>
       <c r="D179">
-        <v>638</v>
+        <v>511</v>
       </c>
       <c r="E179" t="s">
         <v>683</v>
@@ -5942,7 +5942,7 @@
         <v>564</v>
       </c>
       <c r="D180">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="E180" t="s">
         <v>683</v>
@@ -5962,7 +5962,7 @@
         <v>565</v>
       </c>
       <c r="D181">
-        <v>958</v>
+        <v>905</v>
       </c>
       <c r="E181" t="s">
         <v>683</v>
@@ -5982,7 +5982,7 @@
         <v>565</v>
       </c>
       <c r="D182">
-        <v>957</v>
+        <v>530</v>
       </c>
       <c r="E182" t="s">
         <v>683</v>
@@ -6002,7 +6002,7 @@
         <v>565</v>
       </c>
       <c r="D183">
-        <v>600</v>
+        <v>930</v>
       </c>
       <c r="E183" t="s">
         <v>683</v>
@@ -6022,7 +6022,7 @@
         <v>565</v>
       </c>
       <c r="D184">
-        <v>513</v>
+        <v>789</v>
       </c>
       <c r="E184" t="s">
         <v>683</v>
@@ -6042,7 +6042,7 @@
         <v>566</v>
       </c>
       <c r="D185">
-        <v>823</v>
+        <v>989</v>
       </c>
       <c r="E185" t="s">
         <v>683</v>
@@ -6062,7 +6062,7 @@
         <v>566</v>
       </c>
       <c r="D186">
-        <v>877</v>
+        <v>920</v>
       </c>
       <c r="E186" t="s">
         <v>683</v>
@@ -6082,7 +6082,7 @@
         <v>566</v>
       </c>
       <c r="D187">
-        <v>856</v>
+        <v>650</v>
       </c>
       <c r="E187" t="s">
         <v>683</v>
@@ -6102,7 +6102,7 @@
         <v>566</v>
       </c>
       <c r="D188">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="E188" t="s">
         <v>683</v>
@@ -6122,7 +6122,7 @@
         <v>567</v>
       </c>
       <c r="D189">
-        <v>858</v>
+        <v>728</v>
       </c>
       <c r="E189" t="s">
         <v>683</v>
@@ -6142,7 +6142,7 @@
         <v>567</v>
       </c>
       <c r="D190">
-        <v>546</v>
+        <v>928</v>
       </c>
       <c r="E190" t="s">
         <v>683</v>
@@ -6162,7 +6162,7 @@
         <v>567</v>
       </c>
       <c r="D191">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="E191" t="s">
         <v>683</v>
@@ -6182,7 +6182,7 @@
         <v>567</v>
       </c>
       <c r="D192">
-        <v>796</v>
+        <v>560</v>
       </c>
       <c r="E192" t="s">
         <v>683</v>
@@ -6202,7 +6202,7 @@
         <v>568</v>
       </c>
       <c r="D193">
-        <v>541</v>
+        <v>882</v>
       </c>
       <c r="E193" t="s">
         <v>683</v>
@@ -6222,7 +6222,7 @@
         <v>568</v>
       </c>
       <c r="D194">
-        <v>871</v>
+        <v>949</v>
       </c>
       <c r="E194" t="s">
         <v>683</v>
@@ -6242,7 +6242,7 @@
         <v>568</v>
       </c>
       <c r="D195">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="E195" t="s">
         <v>683</v>
@@ -6262,7 +6262,7 @@
         <v>568</v>
       </c>
       <c r="D196">
-        <v>818</v>
+        <v>853</v>
       </c>
       <c r="E196" t="s">
         <v>683</v>
@@ -6333,7 +6333,7 @@
         <v>569</v>
       </c>
       <c r="D200">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="E200" t="s">
         <v>683</v>
@@ -6353,7 +6353,7 @@
         <v>569</v>
       </c>
       <c r="D201">
-        <v>511</v>
+        <v>636</v>
       </c>
       <c r="E201" t="s">
         <v>683</v>
@@ -6373,7 +6373,7 @@
         <v>570</v>
       </c>
       <c r="D202">
-        <v>604</v>
+        <v>526</v>
       </c>
       <c r="E202" t="s">
         <v>683</v>
@@ -6393,7 +6393,7 @@
         <v>570</v>
       </c>
       <c r="D203">
-        <v>850</v>
+        <v>533</v>
       </c>
       <c r="E203" t="s">
         <v>683</v>
@@ -6413,7 +6413,7 @@
         <v>571</v>
       </c>
       <c r="D204">
-        <v>589</v>
+        <v>943</v>
       </c>
       <c r="E204" t="s">
         <v>683</v>
@@ -6433,7 +6433,7 @@
         <v>571</v>
       </c>
       <c r="D205">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="E205" t="s">
         <v>683</v>
@@ -6453,7 +6453,7 @@
         <v>571</v>
       </c>
       <c r="D206">
-        <v>742</v>
+        <v>826</v>
       </c>
       <c r="E206" t="s">
         <v>683</v>
@@ -6473,7 +6473,7 @@
         <v>571</v>
       </c>
       <c r="D207">
-        <v>536</v>
+        <v>707</v>
       </c>
       <c r="E207" t="s">
         <v>683</v>
@@ -6493,7 +6493,7 @@
         <v>572</v>
       </c>
       <c r="D208">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="E208" t="s">
         <v>683</v>
@@ -6513,7 +6513,7 @@
         <v>572</v>
       </c>
       <c r="D209">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E209" t="s">
         <v>683</v>
@@ -6533,7 +6533,7 @@
         <v>572</v>
       </c>
       <c r="D210">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="E210" t="s">
         <v>683</v>
@@ -6553,7 +6553,7 @@
         <v>572</v>
       </c>
       <c r="D211">
-        <v>761</v>
+        <v>712</v>
       </c>
       <c r="E211" t="s">
         <v>683</v>
@@ -6573,7 +6573,7 @@
         <v>573</v>
       </c>
       <c r="D212">
-        <v>824</v>
+        <v>933</v>
       </c>
       <c r="E212" t="s">
         <v>683</v>
@@ -6593,7 +6593,7 @@
         <v>573</v>
       </c>
       <c r="D213">
-        <v>687</v>
+        <v>923</v>
       </c>
       <c r="E213" t="s">
         <v>683</v>
@@ -6613,7 +6613,7 @@
         <v>573</v>
       </c>
       <c r="D214">
-        <v>781</v>
+        <v>725</v>
       </c>
       <c r="E214" t="s">
         <v>683</v>
@@ -6633,7 +6633,7 @@
         <v>573</v>
       </c>
       <c r="D215">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="E215" t="s">
         <v>683</v>
@@ -6653,7 +6653,7 @@
         <v>574</v>
       </c>
       <c r="D216">
-        <v>528</v>
+        <v>783</v>
       </c>
       <c r="E216" t="s">
         <v>683</v>
@@ -6673,7 +6673,7 @@
         <v>574</v>
       </c>
       <c r="D217">
-        <v>818</v>
+        <v>627</v>
       </c>
       <c r="E217" t="s">
         <v>683</v>
@@ -6693,7 +6693,7 @@
         <v>574</v>
       </c>
       <c r="D218">
-        <v>863</v>
+        <v>724</v>
       </c>
       <c r="E218" t="s">
         <v>683</v>
@@ -6713,7 +6713,7 @@
         <v>574</v>
       </c>
       <c r="D219">
-        <v>876</v>
+        <v>839</v>
       </c>
       <c r="E219" t="s">
         <v>683</v>
@@ -6733,7 +6733,7 @@
         <v>575</v>
       </c>
       <c r="D220">
-        <v>982</v>
+        <v>890</v>
       </c>
       <c r="E220" t="s">
         <v>683</v>
@@ -6753,7 +6753,7 @@
         <v>575</v>
       </c>
       <c r="D221">
-        <v>831</v>
+        <v>886</v>
       </c>
       <c r="E221" t="s">
         <v>683</v>
@@ -6773,7 +6773,7 @@
         <v>575</v>
       </c>
       <c r="D222">
-        <v>795</v>
+        <v>538</v>
       </c>
       <c r="E222" t="s">
         <v>683</v>
@@ -6793,7 +6793,7 @@
         <v>575</v>
       </c>
       <c r="D223">
-        <v>781</v>
+        <v>533</v>
       </c>
       <c r="E223" t="s">
         <v>683</v>
@@ -6813,7 +6813,7 @@
         <v>576</v>
       </c>
       <c r="D224">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="E224" t="s">
         <v>683</v>
@@ -6833,7 +6833,7 @@
         <v>577</v>
       </c>
       <c r="D225">
-        <v>905</v>
+        <v>775</v>
       </c>
       <c r="E225" t="s">
         <v>683</v>
@@ -6853,7 +6853,7 @@
         <v>578</v>
       </c>
       <c r="D226">
-        <v>591</v>
+        <v>681</v>
       </c>
       <c r="E226" t="s">
         <v>683</v>
@@ -6873,7 +6873,7 @@
         <v>579</v>
       </c>
       <c r="D227">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="E227" t="s">
         <v>683</v>
@@ -6893,7 +6893,7 @@
         <v>580</v>
       </c>
       <c r="D228">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="E228" t="s">
         <v>683</v>
@@ -6913,7 +6913,7 @@
         <v>580</v>
       </c>
       <c r="D229">
-        <v>774</v>
+        <v>608</v>
       </c>
       <c r="E229" t="s">
         <v>683</v>
@@ -6933,7 +6933,7 @@
         <v>580</v>
       </c>
       <c r="D230">
-        <v>624</v>
+        <v>911</v>
       </c>
       <c r="E230" t="s">
         <v>683</v>
@@ -6953,7 +6953,7 @@
         <v>580</v>
       </c>
       <c r="D231">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="E231" t="s">
         <v>683</v>
@@ -6973,7 +6973,7 @@
         <v>581</v>
       </c>
       <c r="D232">
-        <v>872</v>
+        <v>618</v>
       </c>
       <c r="E232" t="s">
         <v>683</v>
@@ -6993,7 +6993,7 @@
         <v>581</v>
       </c>
       <c r="D233">
-        <v>813</v>
+        <v>527</v>
       </c>
       <c r="E233" t="s">
         <v>683</v>
@@ -7013,7 +7013,7 @@
         <v>581</v>
       </c>
       <c r="D234">
-        <v>966</v>
+        <v>552</v>
       </c>
       <c r="E234" t="s">
         <v>683</v>
@@ -7033,7 +7033,7 @@
         <v>581</v>
       </c>
       <c r="D235">
-        <v>785</v>
+        <v>565</v>
       </c>
       <c r="E235" t="s">
         <v>683</v>
@@ -7053,7 +7053,7 @@
         <v>582</v>
       </c>
       <c r="D236">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E236" t="s">
         <v>683</v>
@@ -7073,7 +7073,7 @@
         <v>582</v>
       </c>
       <c r="D237">
-        <v>787</v>
+        <v>713</v>
       </c>
       <c r="E237" t="s">
         <v>683</v>
@@ -7093,7 +7093,7 @@
         <v>582</v>
       </c>
       <c r="D238">
-        <v>943</v>
+        <v>888</v>
       </c>
       <c r="E238" t="s">
         <v>683</v>
@@ -7113,7 +7113,7 @@
         <v>582</v>
       </c>
       <c r="D239">
-        <v>841</v>
+        <v>542</v>
       </c>
       <c r="E239" t="s">
         <v>683</v>
@@ -7133,7 +7133,7 @@
         <v>583</v>
       </c>
       <c r="D240">
-        <v>651</v>
+        <v>853</v>
       </c>
       <c r="E240" t="s">
         <v>683</v>
@@ -7153,7 +7153,7 @@
         <v>583</v>
       </c>
       <c r="D241">
-        <v>942</v>
+        <v>671</v>
       </c>
       <c r="E241" t="s">
         <v>683</v>
@@ -7173,7 +7173,7 @@
         <v>583</v>
       </c>
       <c r="D242">
-        <v>901</v>
+        <v>830</v>
       </c>
       <c r="E242" t="s">
         <v>683</v>
@@ -7193,7 +7193,7 @@
         <v>583</v>
       </c>
       <c r="D243">
-        <v>674</v>
+        <v>768</v>
       </c>
       <c r="E243" t="s">
         <v>683</v>
@@ -7213,7 +7213,7 @@
         <v>584</v>
       </c>
       <c r="D244">
-        <v>752</v>
+        <v>624</v>
       </c>
       <c r="E244" t="s">
         <v>683</v>
@@ -7233,7 +7233,7 @@
         <v>584</v>
       </c>
       <c r="D245">
-        <v>724</v>
+        <v>897</v>
       </c>
       <c r="E245" t="s">
         <v>683</v>
@@ -7253,7 +7253,7 @@
         <v>584</v>
       </c>
       <c r="D246">
-        <v>523</v>
+        <v>605</v>
       </c>
       <c r="E246" t="s">
         <v>683</v>
@@ -7273,7 +7273,7 @@
         <v>584</v>
       </c>
       <c r="D247">
-        <v>689</v>
+        <v>574</v>
       </c>
       <c r="E247" t="s">
         <v>683</v>
@@ -7293,7 +7293,7 @@
         <v>585</v>
       </c>
       <c r="D248">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="E248" t="s">
         <v>683</v>
@@ -7313,7 +7313,7 @@
         <v>585</v>
       </c>
       <c r="D249">
-        <v>988</v>
+        <v>619</v>
       </c>
       <c r="E249" t="s">
         <v>683</v>
@@ -7333,7 +7333,7 @@
         <v>585</v>
       </c>
       <c r="D250">
-        <v>587</v>
+        <v>703</v>
       </c>
       <c r="E250" t="s">
         <v>683</v>
@@ -7353,7 +7353,7 @@
         <v>585</v>
       </c>
       <c r="D251">
-        <v>625</v>
+        <v>925</v>
       </c>
       <c r="E251" t="s">
         <v>683</v>
@@ -7441,7 +7441,7 @@
         <v>587</v>
       </c>
       <c r="D256">
-        <v>529</v>
+        <v>768</v>
       </c>
       <c r="E256" t="s">
         <v>683</v>
@@ -7461,7 +7461,7 @@
         <v>587</v>
       </c>
       <c r="D257">
-        <v>933</v>
+        <v>732</v>
       </c>
       <c r="E257" t="s">
         <v>683</v>
@@ -7481,7 +7481,7 @@
         <v>587</v>
       </c>
       <c r="D258">
-        <v>929</v>
+        <v>538</v>
       </c>
       <c r="E258" t="s">
         <v>683</v>
@@ -7501,7 +7501,7 @@
         <v>587</v>
       </c>
       <c r="D259">
-        <v>920</v>
+        <v>854</v>
       </c>
       <c r="E259" t="s">
         <v>683</v>
@@ -7521,7 +7521,7 @@
         <v>588</v>
       </c>
       <c r="D260">
-        <v>699</v>
+        <v>912</v>
       </c>
       <c r="E260" t="s">
         <v>683</v>
@@ -7541,7 +7541,7 @@
         <v>588</v>
       </c>
       <c r="D261">
-        <v>988</v>
+        <v>712</v>
       </c>
       <c r="E261" t="s">
         <v>683</v>
@@ -7561,7 +7561,7 @@
         <v>588</v>
       </c>
       <c r="D262">
-        <v>960</v>
+        <v>534</v>
       </c>
       <c r="E262" t="s">
         <v>683</v>
@@ -7581,7 +7581,7 @@
         <v>588</v>
       </c>
       <c r="D263">
-        <v>607</v>
+        <v>831</v>
       </c>
       <c r="E263" t="s">
         <v>683</v>
@@ -7601,7 +7601,7 @@
         <v>589</v>
       </c>
       <c r="D264">
-        <v>591</v>
+        <v>895</v>
       </c>
       <c r="E264" t="s">
         <v>683</v>
@@ -7621,7 +7621,7 @@
         <v>589</v>
       </c>
       <c r="D265">
-        <v>824</v>
+        <v>902</v>
       </c>
       <c r="E265" t="s">
         <v>683</v>
@@ -7641,7 +7641,7 @@
         <v>589</v>
       </c>
       <c r="D266">
-        <v>663</v>
+        <v>563</v>
       </c>
       <c r="E266" t="s">
         <v>683</v>
@@ -7661,7 +7661,7 @@
         <v>589</v>
       </c>
       <c r="D267">
-        <v>912</v>
+        <v>999</v>
       </c>
       <c r="E267" t="s">
         <v>683</v>
@@ -7681,7 +7681,7 @@
         <v>590</v>
       </c>
       <c r="D268">
-        <v>673</v>
+        <v>866</v>
       </c>
       <c r="E268" t="s">
         <v>683</v>
@@ -7701,7 +7701,7 @@
         <v>590</v>
       </c>
       <c r="D269">
-        <v>662</v>
+        <v>894</v>
       </c>
       <c r="E269" t="s">
         <v>683</v>
@@ -7721,7 +7721,7 @@
         <v>590</v>
       </c>
       <c r="D270">
-        <v>779</v>
+        <v>578</v>
       </c>
       <c r="E270" t="s">
         <v>683</v>
@@ -7741,7 +7741,7 @@
         <v>590</v>
       </c>
       <c r="D271">
-        <v>762</v>
+        <v>885</v>
       </c>
       <c r="E271" t="s">
         <v>683</v>
@@ -7761,7 +7761,7 @@
         <v>591</v>
       </c>
       <c r="D272">
-        <v>800</v>
+        <v>662</v>
       </c>
       <c r="E272" t="s">
         <v>683</v>
@@ -7781,7 +7781,7 @@
         <v>591</v>
       </c>
       <c r="D273">
-        <v>946</v>
+        <v>511</v>
       </c>
       <c r="E273" t="s">
         <v>683</v>
@@ -7801,7 +7801,7 @@
         <v>591</v>
       </c>
       <c r="D274">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="E274" t="s">
         <v>683</v>
@@ -7821,7 +7821,7 @@
         <v>591</v>
       </c>
       <c r="D275">
-        <v>882</v>
+        <v>701</v>
       </c>
       <c r="E275" t="s">
         <v>683</v>
@@ -7841,7 +7841,7 @@
         <v>592</v>
       </c>
       <c r="D276">
-        <v>651</v>
+        <v>839</v>
       </c>
       <c r="E276" t="s">
         <v>683</v>
@@ -7861,7 +7861,7 @@
         <v>592</v>
       </c>
       <c r="D277">
-        <v>664</v>
+        <v>876</v>
       </c>
       <c r="E277" t="s">
         <v>683</v>
@@ -7881,7 +7881,7 @@
         <v>592</v>
       </c>
       <c r="D278">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="E278" t="s">
         <v>683</v>
@@ -7901,7 +7901,7 @@
         <v>592</v>
       </c>
       <c r="D279">
-        <v>504</v>
+        <v>664</v>
       </c>
       <c r="E279" t="s">
         <v>683</v>
@@ -7921,7 +7921,7 @@
         <v>593</v>
       </c>
       <c r="D280">
-        <v>502</v>
+        <v>590</v>
       </c>
       <c r="E280" t="s">
         <v>683</v>
@@ -7941,7 +7941,7 @@
         <v>593</v>
       </c>
       <c r="D281">
-        <v>786</v>
+        <v>972</v>
       </c>
       <c r="E281" t="s">
         <v>683</v>
@@ -7961,7 +7961,7 @@
         <v>593</v>
       </c>
       <c r="D282">
-        <v>589</v>
+        <v>760</v>
       </c>
       <c r="E282" t="s">
         <v>683</v>
@@ -7981,7 +7981,7 @@
         <v>593</v>
       </c>
       <c r="D283">
-        <v>878</v>
+        <v>610</v>
       </c>
       <c r="E283" t="s">
         <v>683</v>
@@ -8001,7 +8001,7 @@
         <v>594</v>
       </c>
       <c r="D284">
-        <v>997</v>
+        <v>630</v>
       </c>
       <c r="E284" t="s">
         <v>683</v>
@@ -8021,7 +8021,7 @@
         <v>594</v>
       </c>
       <c r="D285">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="E285" t="s">
         <v>683</v>
@@ -8041,7 +8041,7 @@
         <v>594</v>
       </c>
       <c r="D286">
-        <v>765</v>
+        <v>700</v>
       </c>
       <c r="E286" t="s">
         <v>683</v>
@@ -8061,7 +8061,7 @@
         <v>594</v>
       </c>
       <c r="D287">
-        <v>793</v>
+        <v>523</v>
       </c>
       <c r="E287" t="s">
         <v>683</v>
@@ -8081,7 +8081,7 @@
         <v>595</v>
       </c>
       <c r="D288">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="E288" t="s">
         <v>683</v>
@@ -8101,7 +8101,7 @@
         <v>595</v>
       </c>
       <c r="D289">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="E289" t="s">
         <v>683</v>
@@ -8121,7 +8121,7 @@
         <v>595</v>
       </c>
       <c r="D290">
-        <v>964</v>
+        <v>566</v>
       </c>
       <c r="E290" t="s">
         <v>683</v>
@@ -8141,7 +8141,7 @@
         <v>595</v>
       </c>
       <c r="D291">
-        <v>697</v>
+        <v>613</v>
       </c>
       <c r="E291" t="s">
         <v>683</v>
@@ -8161,7 +8161,7 @@
         <v>596</v>
       </c>
       <c r="D292">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E292" t="s">
         <v>683</v>
@@ -8181,7 +8181,7 @@
         <v>596</v>
       </c>
       <c r="D293">
-        <v>509</v>
+        <v>912</v>
       </c>
       <c r="E293" t="s">
         <v>683</v>
@@ -8201,7 +8201,7 @@
         <v>596</v>
       </c>
       <c r="D294">
-        <v>662</v>
+        <v>993</v>
       </c>
       <c r="E294" t="s">
         <v>683</v>
@@ -8221,7 +8221,7 @@
         <v>596</v>
       </c>
       <c r="D295">
-        <v>901</v>
+        <v>815</v>
       </c>
       <c r="E295" t="s">
         <v>683</v>
@@ -8241,7 +8241,7 @@
         <v>597</v>
       </c>
       <c r="D296">
-        <v>756</v>
+        <v>838</v>
       </c>
       <c r="E296" t="s">
         <v>683</v>
@@ -8261,7 +8261,7 @@
         <v>597</v>
       </c>
       <c r="D297">
-        <v>754</v>
+        <v>679</v>
       </c>
       <c r="E297" t="s">
         <v>683</v>
@@ -8281,7 +8281,7 @@
         <v>597</v>
       </c>
       <c r="D298">
-        <v>571</v>
+        <v>679</v>
       </c>
       <c r="E298" t="s">
         <v>683</v>
@@ -8301,7 +8301,7 @@
         <v>597</v>
       </c>
       <c r="D299">
-        <v>747</v>
+        <v>680</v>
       </c>
       <c r="E299" t="s">
         <v>683</v>
@@ -8321,7 +8321,7 @@
         <v>598</v>
       </c>
       <c r="D300">
-        <v>836</v>
+        <v>922</v>
       </c>
       <c r="E300" t="s">
         <v>683</v>
@@ -8341,7 +8341,7 @@
         <v>598</v>
       </c>
       <c r="D301">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="E301" t="s">
         <v>683</v>
@@ -8361,7 +8361,7 @@
         <v>598</v>
       </c>
       <c r="D302">
-        <v>728</v>
+        <v>877</v>
       </c>
       <c r="E302" t="s">
         <v>683</v>
@@ -8381,7 +8381,7 @@
         <v>598</v>
       </c>
       <c r="D303">
-        <v>958</v>
+        <v>511</v>
       </c>
       <c r="E303" t="s">
         <v>683</v>
@@ -8401,7 +8401,7 @@
         <v>599</v>
       </c>
       <c r="D304">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="E304" t="s">
         <v>683</v>
@@ -8421,7 +8421,7 @@
         <v>599</v>
       </c>
       <c r="D305">
-        <v>677</v>
+        <v>826</v>
       </c>
       <c r="E305" t="s">
         <v>683</v>
@@ -8441,7 +8441,7 @@
         <v>599</v>
       </c>
       <c r="D306">
-        <v>773</v>
+        <v>802</v>
       </c>
       <c r="E306" t="s">
         <v>683</v>
@@ -8461,7 +8461,7 @@
         <v>599</v>
       </c>
       <c r="D307">
-        <v>526</v>
+        <v>786</v>
       </c>
       <c r="E307" t="s">
         <v>683</v>
@@ -8481,7 +8481,7 @@
         <v>600</v>
       </c>
       <c r="D308">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="E308" t="s">
         <v>683</v>
@@ -8501,7 +8501,7 @@
         <v>600</v>
       </c>
       <c r="D309">
-        <v>952</v>
+        <v>601</v>
       </c>
       <c r="E309" t="s">
         <v>683</v>
@@ -8521,7 +8521,7 @@
         <v>600</v>
       </c>
       <c r="D310">
-        <v>921</v>
+        <v>656</v>
       </c>
       <c r="E310" t="s">
         <v>683</v>
@@ -8541,7 +8541,7 @@
         <v>600</v>
       </c>
       <c r="D311">
-        <v>984</v>
+        <v>683</v>
       </c>
       <c r="E311" t="s">
         <v>683</v>
@@ -8561,7 +8561,7 @@
         <v>600</v>
       </c>
       <c r="D312">
-        <v>502</v>
+        <v>592</v>
       </c>
       <c r="E312" t="s">
         <v>683</v>
@@ -8581,7 +8581,7 @@
         <v>600</v>
       </c>
       <c r="D313">
-        <v>524</v>
+        <v>934</v>
       </c>
       <c r="E313" t="s">
         <v>683</v>
@@ -8601,7 +8601,7 @@
         <v>600</v>
       </c>
       <c r="D314">
-        <v>994</v>
+        <v>554</v>
       </c>
       <c r="E314" t="s">
         <v>683</v>
@@ -8621,7 +8621,7 @@
         <v>601</v>
       </c>
       <c r="D315">
-        <v>594</v>
+        <v>858</v>
       </c>
       <c r="E315" t="s">
         <v>683</v>
@@ -8641,7 +8641,7 @@
         <v>601</v>
       </c>
       <c r="D316">
-        <v>559</v>
+        <v>818</v>
       </c>
       <c r="E316" t="s">
         <v>683</v>
@@ -8661,7 +8661,7 @@
         <v>601</v>
       </c>
       <c r="D317">
-        <v>772</v>
+        <v>562</v>
       </c>
       <c r="E317" t="s">
         <v>683</v>
@@ -8681,7 +8681,7 @@
         <v>601</v>
       </c>
       <c r="D318">
-        <v>891</v>
+        <v>518</v>
       </c>
       <c r="E318" t="s">
         <v>683</v>
@@ -8701,7 +8701,7 @@
         <v>602</v>
       </c>
       <c r="D319">
-        <v>586</v>
+        <v>960</v>
       </c>
       <c r="E319" t="s">
         <v>683</v>
@@ -8721,7 +8721,7 @@
         <v>602</v>
       </c>
       <c r="D320">
-        <v>513</v>
+        <v>609</v>
       </c>
       <c r="E320" t="s">
         <v>683</v>
@@ -8741,7 +8741,7 @@
         <v>602</v>
       </c>
       <c r="D321">
-        <v>581</v>
+        <v>977</v>
       </c>
       <c r="E321" t="s">
         <v>683</v>
@@ -8761,7 +8761,7 @@
         <v>602</v>
       </c>
       <c r="D322">
-        <v>618</v>
+        <v>754</v>
       </c>
       <c r="E322" t="s">
         <v>683</v>
@@ -8781,7 +8781,7 @@
         <v>603</v>
       </c>
       <c r="D323">
-        <v>692</v>
+        <v>757</v>
       </c>
       <c r="E323" t="s">
         <v>683</v>
@@ -8801,7 +8801,7 @@
         <v>603</v>
       </c>
       <c r="D324">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E324" t="s">
         <v>683</v>
@@ -8821,7 +8821,7 @@
         <v>603</v>
       </c>
       <c r="D325">
-        <v>940</v>
+        <v>609</v>
       </c>
       <c r="E325" t="s">
         <v>683</v>
@@ -8841,7 +8841,7 @@
         <v>603</v>
       </c>
       <c r="D326">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="E326" t="s">
         <v>683</v>
@@ -8861,7 +8861,7 @@
         <v>604</v>
       </c>
       <c r="D327">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="E327" t="s">
         <v>683</v>
@@ -8881,7 +8881,7 @@
         <v>604</v>
       </c>
       <c r="D328">
-        <v>936</v>
+        <v>616</v>
       </c>
       <c r="E328" t="s">
         <v>683</v>
@@ -8901,7 +8901,7 @@
         <v>604</v>
       </c>
       <c r="D329">
-        <v>637</v>
+        <v>806</v>
       </c>
       <c r="E329" t="s">
         <v>683</v>
@@ -8921,7 +8921,7 @@
         <v>604</v>
       </c>
       <c r="D330">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="E330" t="s">
         <v>683</v>
@@ -8941,7 +8941,7 @@
         <v>605</v>
       </c>
       <c r="D331">
-        <v>847</v>
+        <v>634</v>
       </c>
       <c r="E331" t="s">
         <v>683</v>
@@ -8961,7 +8961,7 @@
         <v>605</v>
       </c>
       <c r="D332">
-        <v>837</v>
+        <v>510</v>
       </c>
       <c r="E332" t="s">
         <v>683</v>
@@ -8981,7 +8981,7 @@
         <v>605</v>
       </c>
       <c r="D333">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E333" t="s">
         <v>683</v>
@@ -9001,7 +9001,7 @@
         <v>605</v>
       </c>
       <c r="D334">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="E334" t="s">
         <v>683</v>
@@ -9021,7 +9021,7 @@
         <v>606</v>
       </c>
       <c r="D335">
-        <v>872</v>
+        <v>992</v>
       </c>
       <c r="E335" t="s">
         <v>683</v>
@@ -9041,7 +9041,7 @@
         <v>606</v>
       </c>
       <c r="D336">
-        <v>769</v>
+        <v>632</v>
       </c>
       <c r="E336" t="s">
         <v>683</v>
@@ -9061,7 +9061,7 @@
         <v>606</v>
       </c>
       <c r="D337">
-        <v>791</v>
+        <v>505</v>
       </c>
       <c r="E337" t="s">
         <v>683</v>
@@ -9081,7 +9081,7 @@
         <v>606</v>
       </c>
       <c r="D338">
-        <v>788</v>
+        <v>672</v>
       </c>
       <c r="E338" t="s">
         <v>683</v>
@@ -9101,7 +9101,7 @@
         <v>607</v>
       </c>
       <c r="D339">
-        <v>533</v>
+        <v>653</v>
       </c>
       <c r="E339" t="s">
         <v>683</v>
@@ -9121,7 +9121,7 @@
         <v>607</v>
       </c>
       <c r="D340">
-        <v>566</v>
+        <v>904</v>
       </c>
       <c r="E340" t="s">
         <v>683</v>
@@ -9141,7 +9141,7 @@
         <v>607</v>
       </c>
       <c r="D341">
-        <v>541</v>
+        <v>662</v>
       </c>
       <c r="E341" t="s">
         <v>683</v>
@@ -9161,7 +9161,7 @@
         <v>607</v>
       </c>
       <c r="D342">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="E342" t="s">
         <v>683</v>
@@ -9181,7 +9181,7 @@
         <v>607</v>
       </c>
       <c r="D343">
-        <v>587</v>
+        <v>914</v>
       </c>
       <c r="E343" t="s">
         <v>683</v>
@@ -9201,7 +9201,7 @@
         <v>607</v>
       </c>
       <c r="D344">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="E344" t="s">
         <v>683</v>
@@ -9221,7 +9221,7 @@
         <v>607</v>
       </c>
       <c r="D345">
-        <v>846</v>
+        <v>593</v>
       </c>
       <c r="E345" t="s">
         <v>683</v>
@@ -9241,7 +9241,7 @@
         <v>608</v>
       </c>
       <c r="D346">
-        <v>598</v>
+        <v>844</v>
       </c>
       <c r="E346" t="s">
         <v>683</v>
@@ -9261,7 +9261,7 @@
         <v>608</v>
       </c>
       <c r="D347">
-        <v>734</v>
+        <v>821</v>
       </c>
       <c r="E347" t="s">
         <v>683</v>
@@ -9281,7 +9281,7 @@
         <v>608</v>
       </c>
       <c r="D348">
-        <v>624</v>
+        <v>886</v>
       </c>
       <c r="E348" t="s">
         <v>683</v>
@@ -9318,7 +9318,7 @@
         <v>610</v>
       </c>
       <c r="D350">
-        <v>732</v>
+        <v>774</v>
       </c>
       <c r="E350" t="s">
         <v>683</v>
@@ -9338,7 +9338,7 @@
         <v>610</v>
       </c>
       <c r="D351">
-        <v>778</v>
+        <v>703</v>
       </c>
       <c r="E351" t="s">
         <v>683</v>
@@ -9358,7 +9358,7 @@
         <v>610</v>
       </c>
       <c r="D352">
-        <v>566</v>
+        <v>726</v>
       </c>
       <c r="E352" t="s">
         <v>683</v>
@@ -9378,7 +9378,7 @@
         <v>610</v>
       </c>
       <c r="D353">
-        <v>998</v>
+        <v>629</v>
       </c>
       <c r="E353" t="s">
         <v>683</v>
@@ -9398,7 +9398,7 @@
         <v>611</v>
       </c>
       <c r="D354">
-        <v>803</v>
+        <v>602</v>
       </c>
       <c r="E354" t="s">
         <v>683</v>
@@ -9418,7 +9418,7 @@
         <v>611</v>
       </c>
       <c r="D355">
-        <v>656</v>
+        <v>953</v>
       </c>
       <c r="E355" t="s">
         <v>683</v>
@@ -9438,7 +9438,7 @@
         <v>611</v>
       </c>
       <c r="D356">
-        <v>948</v>
+        <v>557</v>
       </c>
       <c r="E356" t="s">
         <v>683</v>
@@ -9458,7 +9458,7 @@
         <v>611</v>
       </c>
       <c r="D357">
-        <v>550</v>
+        <v>959</v>
       </c>
       <c r="E357" t="s">
         <v>683</v>
@@ -9580,7 +9580,7 @@
         <v>612</v>
       </c>
       <c r="D364">
-        <v>504</v>
+        <v>702</v>
       </c>
       <c r="E364" t="s">
         <v>683</v>
@@ -9600,7 +9600,7 @@
         <v>612</v>
       </c>
       <c r="D365">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="E365" t="s">
         <v>683</v>
@@ -9620,7 +9620,7 @@
         <v>613</v>
       </c>
       <c r="D366">
-        <v>529</v>
+        <v>858</v>
       </c>
       <c r="E366" t="s">
         <v>683</v>
@@ -9640,7 +9640,7 @@
         <v>614</v>
       </c>
       <c r="D367">
-        <v>772</v>
+        <v>840</v>
       </c>
       <c r="E367" t="s">
         <v>683</v>
@@ -9660,7 +9660,7 @@
         <v>614</v>
       </c>
       <c r="D368">
-        <v>993</v>
+        <v>776</v>
       </c>
       <c r="E368" t="s">
         <v>683</v>
@@ -9680,7 +9680,7 @@
         <v>615</v>
       </c>
       <c r="D369">
-        <v>962</v>
+        <v>869</v>
       </c>
       <c r="E369" t="s">
         <v>683</v>
@@ -9700,7 +9700,7 @@
         <v>616</v>
       </c>
       <c r="D370">
-        <v>522</v>
+        <v>984</v>
       </c>
       <c r="E370" t="s">
         <v>683</v>
@@ -9720,7 +9720,7 @@
         <v>616</v>
       </c>
       <c r="D371">
-        <v>991</v>
+        <v>953</v>
       </c>
       <c r="E371" t="s">
         <v>683</v>
@@ -9740,7 +9740,7 @@
         <v>616</v>
       </c>
       <c r="D372">
-        <v>713</v>
+        <v>541</v>
       </c>
       <c r="E372" t="s">
         <v>683</v>
@@ -9760,7 +9760,7 @@
         <v>617</v>
       </c>
       <c r="D373">
-        <v>530</v>
+        <v>906</v>
       </c>
       <c r="E373" t="s">
         <v>683</v>
@@ -9780,7 +9780,7 @@
         <v>617</v>
       </c>
       <c r="D374">
-        <v>932</v>
+        <v>742</v>
       </c>
       <c r="E374" t="s">
         <v>683</v>
@@ -9800,7 +9800,7 @@
         <v>617</v>
       </c>
       <c r="D375">
-        <v>668</v>
+        <v>589</v>
       </c>
       <c r="E375" t="s">
         <v>683</v>
@@ -9820,7 +9820,7 @@
         <v>618</v>
       </c>
       <c r="D376">
-        <v>787</v>
+        <v>895</v>
       </c>
       <c r="E376" t="s">
         <v>683</v>
@@ -9840,7 +9840,7 @@
         <v>618</v>
       </c>
       <c r="D377">
-        <v>654</v>
+        <v>795</v>
       </c>
       <c r="E377" t="s">
         <v>683</v>
@@ -9860,7 +9860,7 @@
         <v>618</v>
       </c>
       <c r="D378">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="E378" t="s">
         <v>683</v>
@@ -9880,7 +9880,7 @@
         <v>619</v>
       </c>
       <c r="D379">
-        <v>977</v>
+        <v>604</v>
       </c>
       <c r="E379" t="s">
         <v>683</v>
@@ -9900,7 +9900,7 @@
         <v>619</v>
       </c>
       <c r="D380">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E380" t="s">
         <v>683</v>
@@ -9920,7 +9920,7 @@
         <v>619</v>
       </c>
       <c r="D381">
-        <v>745</v>
+        <v>990</v>
       </c>
       <c r="E381" t="s">
         <v>683</v>
@@ -9940,7 +9940,7 @@
         <v>620</v>
       </c>
       <c r="D382">
-        <v>502</v>
+        <v>716</v>
       </c>
       <c r="E382" t="s">
         <v>683</v>
@@ -9960,7 +9960,7 @@
         <v>621</v>
       </c>
       <c r="D383">
-        <v>762</v>
+        <v>818</v>
       </c>
       <c r="E383" t="s">
         <v>683</v>
@@ -9980,7 +9980,7 @@
         <v>621</v>
       </c>
       <c r="D384">
-        <v>843</v>
+        <v>729</v>
       </c>
       <c r="E384" t="s">
         <v>683</v>
@@ -10000,7 +10000,7 @@
         <v>622</v>
       </c>
       <c r="D385">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="E385" t="s">
         <v>683</v>
@@ -10020,7 +10020,7 @@
         <v>623</v>
       </c>
       <c r="D386">
-        <v>880</v>
+        <v>695</v>
       </c>
       <c r="E386" t="s">
         <v>683</v>
@@ -10040,7 +10040,7 @@
         <v>623</v>
       </c>
       <c r="D387">
-        <v>623</v>
+        <v>760</v>
       </c>
       <c r="E387" t="s">
         <v>683</v>
@@ -10060,7 +10060,7 @@
         <v>623</v>
       </c>
       <c r="D388">
-        <v>534</v>
+        <v>665</v>
       </c>
       <c r="E388" t="s">
         <v>683</v>
@@ -10080,7 +10080,7 @@
         <v>624</v>
       </c>
       <c r="D389">
-        <v>524</v>
+        <v>886</v>
       </c>
       <c r="E389" t="s">
         <v>683</v>
@@ -10100,7 +10100,7 @@
         <v>625</v>
       </c>
       <c r="D390">
-        <v>819</v>
+        <v>601</v>
       </c>
       <c r="E390" t="s">
         <v>683</v>
@@ -10120,7 +10120,7 @@
         <v>625</v>
       </c>
       <c r="D391">
-        <v>712</v>
+        <v>979</v>
       </c>
       <c r="E391" t="s">
         <v>683</v>
@@ -10140,7 +10140,7 @@
         <v>625</v>
       </c>
       <c r="D392">
-        <v>803</v>
+        <v>864</v>
       </c>
       <c r="E392" t="s">
         <v>683</v>
@@ -10160,7 +10160,7 @@
         <v>626</v>
       </c>
       <c r="D393">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="E393" t="s">
         <v>683</v>
@@ -10180,7 +10180,7 @@
         <v>627</v>
       </c>
       <c r="D394">
-        <v>789</v>
+        <v>888</v>
       </c>
       <c r="E394" t="s">
         <v>683</v>
@@ -10200,7 +10200,7 @@
         <v>627</v>
       </c>
       <c r="D395">
-        <v>966</v>
+        <v>899</v>
       </c>
       <c r="E395" t="s">
         <v>683</v>
@@ -10220,7 +10220,7 @@
         <v>627</v>
       </c>
       <c r="D396">
-        <v>944</v>
+        <v>777</v>
       </c>
       <c r="E396" t="s">
         <v>683</v>
@@ -10240,7 +10240,7 @@
         <v>628</v>
       </c>
       <c r="D397">
-        <v>945</v>
+        <v>735</v>
       </c>
       <c r="E397" t="s">
         <v>683</v>
@@ -10345,7 +10345,7 @@
         <v>631</v>
       </c>
       <c r="D403">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="E403" t="s">
         <v>683</v>
@@ -10365,7 +10365,7 @@
         <v>631</v>
       </c>
       <c r="D404">
-        <v>605</v>
+        <v>933</v>
       </c>
       <c r="E404" t="s">
         <v>683</v>
@@ -10385,7 +10385,7 @@
         <v>632</v>
       </c>
       <c r="D405">
-        <v>957</v>
+        <v>544</v>
       </c>
       <c r="E405" t="s">
         <v>683</v>
@@ -10439,7 +10439,7 @@
         <v>634</v>
       </c>
       <c r="D408">
-        <v>882</v>
+        <v>925</v>
       </c>
       <c r="E408" t="s">
         <v>683</v>
@@ -10459,7 +10459,7 @@
         <v>634</v>
       </c>
       <c r="D409">
-        <v>827</v>
+        <v>500</v>
       </c>
       <c r="E409" t="s">
         <v>683</v>
@@ -10479,7 +10479,7 @@
         <v>635</v>
       </c>
       <c r="D410">
-        <v>956</v>
+        <v>708</v>
       </c>
       <c r="E410" t="s">
         <v>683</v>
@@ -10584,7 +10584,7 @@
         <v>639</v>
       </c>
       <c r="D416">
-        <v>577</v>
+        <v>906</v>
       </c>
       <c r="E416" t="s">
         <v>683</v>
@@ -10604,7 +10604,7 @@
         <v>640</v>
       </c>
       <c r="D417">
-        <v>615</v>
+        <v>721</v>
       </c>
       <c r="E417" t="s">
         <v>683</v>
@@ -10624,7 +10624,7 @@
         <v>640</v>
       </c>
       <c r="D418">
-        <v>531</v>
+        <v>995</v>
       </c>
       <c r="E418" t="s">
         <v>683</v>
@@ -10644,7 +10644,7 @@
         <v>640</v>
       </c>
       <c r="D419">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E419" t="s">
         <v>683</v>
@@ -10664,7 +10664,7 @@
         <v>641</v>
       </c>
       <c r="D420">
-        <v>558</v>
+        <v>774</v>
       </c>
       <c r="E420" t="s">
         <v>683</v>
@@ -10684,7 +10684,7 @@
         <v>641</v>
       </c>
       <c r="D421">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="E421" t="s">
         <v>683</v>
@@ -10704,7 +10704,7 @@
         <v>641</v>
       </c>
       <c r="D422">
-        <v>940</v>
+        <v>718</v>
       </c>
       <c r="E422" t="s">
         <v>683</v>
@@ -10724,7 +10724,7 @@
         <v>642</v>
       </c>
       <c r="D423">
-        <v>995</v>
+        <v>920</v>
       </c>
       <c r="E423" t="s">
         <v>683</v>
@@ -10744,7 +10744,7 @@
         <v>643</v>
       </c>
       <c r="D424">
-        <v>574</v>
+        <v>763</v>
       </c>
       <c r="E424" t="s">
         <v>683</v>
@@ -10764,7 +10764,7 @@
         <v>643</v>
       </c>
       <c r="D425">
-        <v>852</v>
+        <v>518</v>
       </c>
       <c r="E425" t="s">
         <v>683</v>
@@ -10784,7 +10784,7 @@
         <v>644</v>
       </c>
       <c r="D426">
-        <v>706</v>
+        <v>828</v>
       </c>
       <c r="E426" t="s">
         <v>683</v>
@@ -10804,7 +10804,7 @@
         <v>644</v>
       </c>
       <c r="D427">
-        <v>977</v>
+        <v>525</v>
       </c>
       <c r="E427" t="s">
         <v>683</v>
@@ -10875,7 +10875,7 @@
         <v>647</v>
       </c>
       <c r="D431">
-        <v>842</v>
+        <v>883</v>
       </c>
       <c r="E431" t="s">
         <v>683</v>
@@ -10895,7 +10895,7 @@
         <v>647</v>
       </c>
       <c r="D432">
-        <v>658</v>
+        <v>888</v>
       </c>
       <c r="E432" t="s">
         <v>683</v>
@@ -10915,7 +10915,7 @@
         <v>648</v>
       </c>
       <c r="D433">
-        <v>938</v>
+        <v>721</v>
       </c>
       <c r="E433" t="s">
         <v>683</v>
@@ -10935,7 +10935,7 @@
         <v>648</v>
       </c>
       <c r="D434">
-        <v>673</v>
+        <v>541</v>
       </c>
       <c r="E434" t="s">
         <v>683</v>
@@ -10955,7 +10955,7 @@
         <v>649</v>
       </c>
       <c r="D435">
-        <v>649</v>
+        <v>524</v>
       </c>
       <c r="E435" t="s">
         <v>683</v>
@@ -10975,7 +10975,7 @@
         <v>649</v>
       </c>
       <c r="D436">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="E436" t="s">
         <v>683</v>
@@ -10995,7 +10995,7 @@
         <v>650</v>
       </c>
       <c r="D437">
-        <v>789</v>
+        <v>516</v>
       </c>
       <c r="E437" t="s">
         <v>683</v>
@@ -11015,7 +11015,7 @@
         <v>650</v>
       </c>
       <c r="D438">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="E438" t="s">
         <v>683</v>
@@ -11035,7 +11035,7 @@
         <v>651</v>
       </c>
       <c r="D439">
-        <v>908</v>
+        <v>863</v>
       </c>
       <c r="E439" t="s">
         <v>683</v>
@@ -11055,7 +11055,7 @@
         <v>651</v>
       </c>
       <c r="D440">
-        <v>894</v>
+        <v>668</v>
       </c>
       <c r="E440" t="s">
         <v>683</v>
@@ -11075,7 +11075,7 @@
         <v>652</v>
       </c>
       <c r="D441">
-        <v>924</v>
+        <v>866</v>
       </c>
       <c r="E441" t="s">
         <v>683</v>
@@ -11095,7 +11095,7 @@
         <v>652</v>
       </c>
       <c r="D442">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="E442" t="s">
         <v>683</v>
@@ -11115,7 +11115,7 @@
         <v>653</v>
       </c>
       <c r="D443">
-        <v>971</v>
+        <v>512</v>
       </c>
       <c r="E443" t="s">
         <v>683</v>
@@ -11135,7 +11135,7 @@
         <v>653</v>
       </c>
       <c r="D444">
-        <v>636</v>
+        <v>888</v>
       </c>
       <c r="E444" t="s">
         <v>683</v>
@@ -11155,7 +11155,7 @@
         <v>654</v>
       </c>
       <c r="D445">
-        <v>510</v>
+        <v>649</v>
       </c>
       <c r="E445" t="s">
         <v>683</v>
@@ -11175,7 +11175,7 @@
         <v>654</v>
       </c>
       <c r="D446">
-        <v>746</v>
+        <v>512</v>
       </c>
       <c r="E446" t="s">
         <v>683</v>
@@ -11229,7 +11229,7 @@
         <v>655</v>
       </c>
       <c r="D449">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E449" t="s">
         <v>683</v>
@@ -11249,7 +11249,7 @@
         <v>655</v>
       </c>
       <c r="D450">
-        <v>892</v>
+        <v>526</v>
       </c>
       <c r="E450" t="s">
         <v>683</v>
@@ -11269,7 +11269,7 @@
         <v>656</v>
       </c>
       <c r="D451">
-        <v>963</v>
+        <v>592</v>
       </c>
       <c r="E451" t="s">
         <v>683</v>
@@ -11289,7 +11289,7 @@
         <v>656</v>
       </c>
       <c r="D452">
-        <v>930</v>
+        <v>608</v>
       </c>
       <c r="E452" t="s">
         <v>683</v>
@@ -11309,7 +11309,7 @@
         <v>657</v>
       </c>
       <c r="D453">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="E453" t="s">
         <v>683</v>
@@ -11329,7 +11329,7 @@
         <v>657</v>
       </c>
       <c r="D454">
-        <v>786</v>
+        <v>959</v>
       </c>
       <c r="E454" t="s">
         <v>683</v>
@@ -11349,7 +11349,7 @@
         <v>658</v>
       </c>
       <c r="D455">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="E455" t="s">
         <v>683</v>
@@ -11369,7 +11369,7 @@
         <v>658</v>
       </c>
       <c r="D456">
-        <v>915</v>
+        <v>623</v>
       </c>
       <c r="E456" t="s">
         <v>683</v>
@@ -11389,7 +11389,7 @@
         <v>659</v>
       </c>
       <c r="D457">
-        <v>952</v>
+        <v>685</v>
       </c>
       <c r="E457" t="s">
         <v>683</v>
@@ -11409,7 +11409,7 @@
         <v>659</v>
       </c>
       <c r="D458">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="E458" t="s">
         <v>683</v>
@@ -11429,7 +11429,7 @@
         <v>660</v>
       </c>
       <c r="D459">
-        <v>998</v>
+        <v>567</v>
       </c>
       <c r="E459" t="s">
         <v>683</v>
@@ -11449,7 +11449,7 @@
         <v>660</v>
       </c>
       <c r="D460">
-        <v>614</v>
+        <v>939</v>
       </c>
       <c r="E460" t="s">
         <v>683</v>
@@ -11469,7 +11469,7 @@
         <v>661</v>
       </c>
       <c r="D461">
-        <v>609</v>
+        <v>991</v>
       </c>
       <c r="E461" t="s">
         <v>683</v>
@@ -11489,7 +11489,7 @@
         <v>661</v>
       </c>
       <c r="D462">
-        <v>935</v>
+        <v>986</v>
       </c>
       <c r="E462" t="s">
         <v>683</v>
@@ -11509,7 +11509,7 @@
         <v>662</v>
       </c>
       <c r="D463">
-        <v>975</v>
+        <v>827</v>
       </c>
       <c r="E463" t="s">
         <v>683</v>
@@ -11529,7 +11529,7 @@
         <v>662</v>
       </c>
       <c r="D464">
-        <v>801</v>
+        <v>939</v>
       </c>
       <c r="E464" t="s">
         <v>683</v>
@@ -11549,7 +11549,7 @@
         <v>663</v>
       </c>
       <c r="D465">
-        <v>506</v>
+        <v>595</v>
       </c>
       <c r="E465" t="s">
         <v>683</v>
@@ -11569,7 +11569,7 @@
         <v>663</v>
       </c>
       <c r="D466">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="E466" t="s">
         <v>683</v>
@@ -11589,7 +11589,7 @@
         <v>664</v>
       </c>
       <c r="D467">
-        <v>712</v>
+        <v>791</v>
       </c>
       <c r="E467" t="s">
         <v>683</v>
@@ -11609,7 +11609,7 @@
         <v>664</v>
       </c>
       <c r="D468">
-        <v>929</v>
+        <v>698</v>
       </c>
       <c r="E468" t="s">
         <v>683</v>
@@ -11629,7 +11629,7 @@
         <v>665</v>
       </c>
       <c r="D469">
-        <v>907</v>
+        <v>508</v>
       </c>
       <c r="E469" t="s">
         <v>683</v>
@@ -11649,7 +11649,7 @@
         <v>665</v>
       </c>
       <c r="D470">
-        <v>861</v>
+        <v>682</v>
       </c>
       <c r="E470" t="s">
         <v>683</v>
@@ -11669,7 +11669,7 @@
         <v>666</v>
       </c>
       <c r="D471">
-        <v>568</v>
+        <v>718</v>
       </c>
       <c r="E471" t="s">
         <v>683</v>
@@ -11689,7 +11689,7 @@
         <v>666</v>
       </c>
       <c r="D472">
-        <v>889</v>
+        <v>688</v>
       </c>
       <c r="E472" t="s">
         <v>683</v>
@@ -11709,7 +11709,7 @@
         <v>667</v>
       </c>
       <c r="D473">
-        <v>731</v>
+        <v>673</v>
       </c>
       <c r="E473" t="s">
         <v>683</v>
@@ -11729,7 +11729,7 @@
         <v>667</v>
       </c>
       <c r="D474">
-        <v>943</v>
+        <v>746</v>
       </c>
       <c r="E474" t="s">
         <v>683</v>
@@ -11749,7 +11749,7 @@
         <v>668</v>
       </c>
       <c r="D475">
-        <v>508</v>
+        <v>825</v>
       </c>
       <c r="E475" t="s">
         <v>683</v>
@@ -11769,7 +11769,7 @@
         <v>668</v>
       </c>
       <c r="D476">
-        <v>551</v>
+        <v>659</v>
       </c>
       <c r="E476" t="s">
         <v>683</v>
@@ -11823,7 +11823,7 @@
         <v>670</v>
       </c>
       <c r="D479">
-        <v>945</v>
+        <v>712</v>
       </c>
       <c r="E479" t="s">
         <v>683</v>
@@ -11843,7 +11843,7 @@
         <v>670</v>
       </c>
       <c r="D480">
-        <v>983</v>
+        <v>721</v>
       </c>
       <c r="E480" t="s">
         <v>683</v>
@@ -11863,7 +11863,7 @@
         <v>671</v>
       </c>
       <c r="D481">
-        <v>974</v>
+        <v>921</v>
       </c>
       <c r="E481" t="s">
         <v>683</v>
@@ -11883,7 +11883,7 @@
         <v>671</v>
       </c>
       <c r="D482">
-        <v>797</v>
+        <v>511</v>
       </c>
       <c r="E482" t="s">
         <v>683</v>
@@ -11903,7 +11903,7 @@
         <v>672</v>
       </c>
       <c r="D483">
-        <v>779</v>
+        <v>656</v>
       </c>
       <c r="E483" t="s">
         <v>683</v>
@@ -11923,7 +11923,7 @@
         <v>672</v>
       </c>
       <c r="D484">
-        <v>736</v>
+        <v>868</v>
       </c>
       <c r="E484" t="s">
         <v>683</v>
@@ -11943,7 +11943,7 @@
         <v>673</v>
       </c>
       <c r="D485">
-        <v>877</v>
+        <v>915</v>
       </c>
       <c r="E485" t="s">
         <v>683</v>
@@ -11963,7 +11963,7 @@
         <v>673</v>
       </c>
       <c r="D486">
-        <v>612</v>
+        <v>711</v>
       </c>
       <c r="E486" t="s">
         <v>683</v>
@@ -11983,7 +11983,7 @@
         <v>674</v>
       </c>
       <c r="D487">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="E487" t="s">
         <v>683</v>
@@ -12003,7 +12003,7 @@
         <v>674</v>
       </c>
       <c r="D488">
-        <v>702</v>
+        <v>585</v>
       </c>
       <c r="E488" t="s">
         <v>683</v>
@@ -12023,7 +12023,7 @@
         <v>675</v>
       </c>
       <c r="D489">
-        <v>712</v>
+        <v>636</v>
       </c>
       <c r="E489" t="s">
         <v>683</v>
@@ -12043,7 +12043,7 @@
         <v>675</v>
       </c>
       <c r="D490">
-        <v>567</v>
+        <v>701</v>
       </c>
       <c r="E490" t="s">
         <v>683</v>
@@ -12063,7 +12063,7 @@
         <v>676</v>
       </c>
       <c r="D491">
-        <v>543</v>
+        <v>780</v>
       </c>
       <c r="E491" t="s">
         <v>683</v>
@@ -12083,7 +12083,7 @@
         <v>676</v>
       </c>
       <c r="D492">
-        <v>772</v>
+        <v>641</v>
       </c>
       <c r="E492" t="s">
         <v>683</v>
@@ -12103,7 +12103,7 @@
         <v>677</v>
       </c>
       <c r="D493">
-        <v>626</v>
+        <v>828</v>
       </c>
       <c r="E493" t="s">
         <v>683</v>
@@ -12123,7 +12123,7 @@
         <v>677</v>
       </c>
       <c r="D494">
-        <v>797</v>
+        <v>586</v>
       </c>
       <c r="E494" t="s">
         <v>683</v>
@@ -12177,7 +12177,7 @@
         <v>679</v>
       </c>
       <c r="D497">
-        <v>829</v>
+        <v>970</v>
       </c>
       <c r="E497" t="s">
         <v>683</v>
@@ -12197,7 +12197,7 @@
         <v>679</v>
       </c>
       <c r="D498">
-        <v>915</v>
+        <v>951</v>
       </c>
       <c r="E498" t="s">
         <v>683</v>
@@ -12217,7 +12217,7 @@
         <v>680</v>
       </c>
       <c r="D499">
-        <v>814</v>
+        <v>771</v>
       </c>
       <c r="E499" t="s">
         <v>683</v>
@@ -12237,7 +12237,7 @@
         <v>680</v>
       </c>
       <c r="D500">
-        <v>724</v>
+        <v>583</v>
       </c>
       <c r="E500" t="s">
         <v>683</v>
@@ -12257,7 +12257,7 @@
         <v>681</v>
       </c>
       <c r="D501">
-        <v>816</v>
+        <v>970</v>
       </c>
       <c r="E501" t="s">
         <v>683</v>
@@ -12277,7 +12277,7 @@
         <v>681</v>
       </c>
       <c r="D502">
-        <v>582</v>
+        <v>975</v>
       </c>
       <c r="E502" t="s">
         <v>683</v>
@@ -12297,7 +12297,7 @@
         <v>682</v>
       </c>
       <c r="D503">
-        <v>846</v>
+        <v>906</v>
       </c>
       <c r="E503" t="s">
         <v>683</v>
@@ -12317,7 +12317,7 @@
         <v>682</v>
       </c>
       <c r="D504">
-        <v>770</v>
+        <v>610</v>
       </c>
       <c r="E504" t="s">
         <v>683</v>

--- a/result/АНИМОНДА.xlsx
+++ b/result/АНИМОНДА.xlsx
@@ -2466,7 +2466,7 @@
         <v>510</v>
       </c>
       <c r="D2">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="F2" t="s">
         <v>684</v>
@@ -2486,7 +2486,7 @@
         <v>510</v>
       </c>
       <c r="D3">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="F3" t="s">
         <v>684</v>
@@ -2506,7 +2506,7 @@
         <v>511</v>
       </c>
       <c r="D4">
-        <v>939</v>
+        <v>840</v>
       </c>
       <c r="F4" t="s">
         <v>684</v>
@@ -2526,7 +2526,7 @@
         <v>511</v>
       </c>
       <c r="D5">
-        <v>748</v>
+        <v>898</v>
       </c>
       <c r="F5" t="s">
         <v>684</v>
@@ -2546,7 +2546,7 @@
         <v>511</v>
       </c>
       <c r="D6">
-        <v>668</v>
+        <v>860</v>
       </c>
       <c r="F6" t="s">
         <v>684</v>
@@ -2566,7 +2566,7 @@
         <v>511</v>
       </c>
       <c r="D7">
-        <v>634</v>
+        <v>807</v>
       </c>
       <c r="F7" t="s">
         <v>684</v>
@@ -2620,7 +2620,7 @@
         <v>513</v>
       </c>
       <c r="D10">
-        <v>762</v>
+        <v>514</v>
       </c>
       <c r="F10" t="s">
         <v>684</v>
@@ -2640,7 +2640,7 @@
         <v>513</v>
       </c>
       <c r="D11">
-        <v>998</v>
+        <v>751</v>
       </c>
       <c r="F11" t="s">
         <v>684</v>
@@ -2660,7 +2660,7 @@
         <v>513</v>
       </c>
       <c r="D12">
-        <v>868</v>
+        <v>935</v>
       </c>
       <c r="F12" t="s">
         <v>684</v>
@@ -2680,7 +2680,7 @@
         <v>514</v>
       </c>
       <c r="D13">
-        <v>775</v>
+        <v>546</v>
       </c>
       <c r="F13" t="s">
         <v>684</v>
@@ -2700,7 +2700,7 @@
         <v>514</v>
       </c>
       <c r="D14">
-        <v>699</v>
+        <v>978</v>
       </c>
       <c r="F14" t="s">
         <v>684</v>
@@ -2720,7 +2720,7 @@
         <v>514</v>
       </c>
       <c r="D15">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="F15" t="s">
         <v>684</v>
@@ -2740,7 +2740,7 @@
         <v>514</v>
       </c>
       <c r="D16">
-        <v>579</v>
+        <v>891</v>
       </c>
       <c r="F16" t="s">
         <v>684</v>
@@ -2760,7 +2760,7 @@
         <v>515</v>
       </c>
       <c r="D17">
-        <v>997</v>
+        <v>510</v>
       </c>
       <c r="F17" t="s">
         <v>684</v>
@@ -2780,7 +2780,7 @@
         <v>515</v>
       </c>
       <c r="D18">
-        <v>532</v>
+        <v>785</v>
       </c>
       <c r="F18" t="s">
         <v>684</v>
@@ -2800,7 +2800,7 @@
         <v>515</v>
       </c>
       <c r="D19">
-        <v>510</v>
+        <v>874</v>
       </c>
       <c r="F19" t="s">
         <v>684</v>
@@ -2820,7 +2820,7 @@
         <v>516</v>
       </c>
       <c r="D20">
-        <v>516</v>
+        <v>708</v>
       </c>
       <c r="F20" t="s">
         <v>684</v>
@@ -2840,7 +2840,7 @@
         <v>516</v>
       </c>
       <c r="D21">
-        <v>665</v>
+        <v>969</v>
       </c>
       <c r="F21" t="s">
         <v>684</v>
@@ -2860,7 +2860,7 @@
         <v>516</v>
       </c>
       <c r="D22">
-        <v>802</v>
+        <v>883</v>
       </c>
       <c r="F22" t="s">
         <v>684</v>
@@ -2880,7 +2880,7 @@
         <v>516</v>
       </c>
       <c r="D23">
-        <v>808</v>
+        <v>958</v>
       </c>
       <c r="F23" t="s">
         <v>684</v>
@@ -2900,7 +2900,7 @@
         <v>517</v>
       </c>
       <c r="D24">
-        <v>865</v>
+        <v>809</v>
       </c>
       <c r="F24" t="s">
         <v>684</v>
@@ -2920,7 +2920,7 @@
         <v>517</v>
       </c>
       <c r="D25">
-        <v>665</v>
+        <v>756</v>
       </c>
       <c r="F25" t="s">
         <v>684</v>
@@ -2940,7 +2940,7 @@
         <v>517</v>
       </c>
       <c r="D26">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="F26" t="s">
         <v>684</v>
@@ -2960,7 +2960,7 @@
         <v>518</v>
       </c>
       <c r="D27">
-        <v>605</v>
+        <v>885</v>
       </c>
       <c r="F27" t="s">
         <v>684</v>
@@ -2980,7 +2980,7 @@
         <v>518</v>
       </c>
       <c r="D28">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="F28" t="s">
         <v>684</v>
@@ -3000,7 +3000,7 @@
         <v>518</v>
       </c>
       <c r="D29">
-        <v>680</v>
+        <v>992</v>
       </c>
       <c r="F29" t="s">
         <v>684</v>
@@ -3020,7 +3020,7 @@
         <v>518</v>
       </c>
       <c r="D30">
-        <v>614</v>
+        <v>875</v>
       </c>
       <c r="F30" t="s">
         <v>684</v>
@@ -3040,7 +3040,7 @@
         <v>519</v>
       </c>
       <c r="D31">
-        <v>768</v>
+        <v>865</v>
       </c>
       <c r="F31" t="s">
         <v>684</v>
@@ -3060,7 +3060,7 @@
         <v>519</v>
       </c>
       <c r="D32">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="F32" t="s">
         <v>684</v>
@@ -3080,7 +3080,7 @@
         <v>519</v>
       </c>
       <c r="D33">
-        <v>721</v>
+        <v>791</v>
       </c>
       <c r="F33" t="s">
         <v>684</v>
@@ -3100,7 +3100,7 @@
         <v>520</v>
       </c>
       <c r="D34">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F34" t="s">
         <v>684</v>
@@ -3120,7 +3120,7 @@
         <v>520</v>
       </c>
       <c r="D35">
-        <v>642</v>
+        <v>518</v>
       </c>
       <c r="F35" t="s">
         <v>684</v>
@@ -3140,7 +3140,7 @@
         <v>520</v>
       </c>
       <c r="D36">
-        <v>771</v>
+        <v>854</v>
       </c>
       <c r="F36" t="s">
         <v>684</v>
@@ -3160,7 +3160,7 @@
         <v>520</v>
       </c>
       <c r="D37">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="F37" t="s">
         <v>684</v>
@@ -3180,7 +3180,7 @@
         <v>521</v>
       </c>
       <c r="D38">
-        <v>592</v>
+        <v>809</v>
       </c>
       <c r="F38" t="s">
         <v>684</v>
@@ -3200,7 +3200,7 @@
         <v>522</v>
       </c>
       <c r="D39">
-        <v>662</v>
+        <v>870</v>
       </c>
       <c r="F39" t="s">
         <v>684</v>
@@ -3220,7 +3220,7 @@
         <v>522</v>
       </c>
       <c r="D40">
-        <v>633</v>
+        <v>846</v>
       </c>
       <c r="F40" t="s">
         <v>684</v>
@@ -3240,7 +3240,7 @@
         <v>522</v>
       </c>
       <c r="D41">
-        <v>705</v>
+        <v>762</v>
       </c>
       <c r="F41" t="s">
         <v>684</v>
@@ -3260,7 +3260,7 @@
         <v>523</v>
       </c>
       <c r="D42">
-        <v>868</v>
+        <v>746</v>
       </c>
       <c r="F42" t="s">
         <v>684</v>
@@ -3280,7 +3280,7 @@
         <v>523</v>
       </c>
       <c r="D43">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="F43" t="s">
         <v>684</v>
@@ -3300,7 +3300,7 @@
         <v>523</v>
       </c>
       <c r="D44">
-        <v>620</v>
+        <v>948</v>
       </c>
       <c r="F44" t="s">
         <v>684</v>
@@ -3320,7 +3320,7 @@
         <v>523</v>
       </c>
       <c r="D45">
-        <v>723</v>
+        <v>883</v>
       </c>
       <c r="F45" t="s">
         <v>684</v>
@@ -3340,7 +3340,7 @@
         <v>524</v>
       </c>
       <c r="D46">
-        <v>831</v>
+        <v>696</v>
       </c>
       <c r="F46" t="s">
         <v>684</v>
@@ -3360,7 +3360,7 @@
         <v>524</v>
       </c>
       <c r="D47">
-        <v>532</v>
+        <v>746</v>
       </c>
       <c r="F47" t="s">
         <v>684</v>
@@ -3380,7 +3380,7 @@
         <v>524</v>
       </c>
       <c r="D48">
-        <v>649</v>
+        <v>777</v>
       </c>
       <c r="F48" t="s">
         <v>684</v>
@@ -3400,7 +3400,7 @@
         <v>525</v>
       </c>
       <c r="D49">
-        <v>691</v>
+        <v>918</v>
       </c>
       <c r="F49" t="s">
         <v>684</v>
@@ -3420,7 +3420,7 @@
         <v>525</v>
       </c>
       <c r="D50">
-        <v>685</v>
+        <v>631</v>
       </c>
       <c r="F50" t="s">
         <v>684</v>
@@ -3440,7 +3440,7 @@
         <v>525</v>
       </c>
       <c r="D51">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F51" t="s">
         <v>684</v>
@@ -3460,7 +3460,7 @@
         <v>525</v>
       </c>
       <c r="D52">
-        <v>762</v>
+        <v>545</v>
       </c>
       <c r="F52" t="s">
         <v>684</v>
@@ -3480,7 +3480,7 @@
         <v>526</v>
       </c>
       <c r="D53">
-        <v>894</v>
+        <v>589</v>
       </c>
       <c r="F53" t="s">
         <v>684</v>
@@ -3500,7 +3500,7 @@
         <v>526</v>
       </c>
       <c r="D54">
-        <v>994</v>
+        <v>948</v>
       </c>
       <c r="F54" t="s">
         <v>684</v>
@@ -3520,7 +3520,7 @@
         <v>527</v>
       </c>
       <c r="D55">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="F55" t="s">
         <v>684</v>
@@ -3540,7 +3540,7 @@
         <v>527</v>
       </c>
       <c r="D56">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F56" t="s">
         <v>684</v>
@@ -3560,7 +3560,7 @@
         <v>528</v>
       </c>
       <c r="D57">
-        <v>879</v>
+        <v>681</v>
       </c>
       <c r="F57" t="s">
         <v>684</v>
@@ -3580,7 +3580,7 @@
         <v>528</v>
       </c>
       <c r="D58">
-        <v>773</v>
+        <v>590</v>
       </c>
       <c r="F58" t="s">
         <v>684</v>
@@ -3600,7 +3600,7 @@
         <v>528</v>
       </c>
       <c r="D59">
-        <v>819</v>
+        <v>956</v>
       </c>
       <c r="F59" t="s">
         <v>684</v>
@@ -3620,7 +3620,7 @@
         <v>528</v>
       </c>
       <c r="D60">
-        <v>847</v>
+        <v>635</v>
       </c>
       <c r="F60" t="s">
         <v>684</v>
@@ -3640,7 +3640,7 @@
         <v>529</v>
       </c>
       <c r="D61">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="F61" t="s">
         <v>684</v>
@@ -3660,7 +3660,7 @@
         <v>529</v>
       </c>
       <c r="D62">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="F62" t="s">
         <v>684</v>
@@ -3680,7 +3680,7 @@
         <v>529</v>
       </c>
       <c r="D63">
-        <v>647</v>
+        <v>797</v>
       </c>
       <c r="F63" t="s">
         <v>684</v>
@@ -3700,7 +3700,7 @@
         <v>530</v>
       </c>
       <c r="D64">
-        <v>783</v>
+        <v>744</v>
       </c>
       <c r="F64" t="s">
         <v>684</v>
@@ -3720,7 +3720,7 @@
         <v>530</v>
       </c>
       <c r="D65">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="F65" t="s">
         <v>684</v>
@@ -3740,7 +3740,7 @@
         <v>530</v>
       </c>
       <c r="D66">
-        <v>646</v>
+        <v>918</v>
       </c>
       <c r="F66" t="s">
         <v>684</v>
@@ -3760,7 +3760,7 @@
         <v>530</v>
       </c>
       <c r="D67">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="F67" t="s">
         <v>684</v>
@@ -3780,7 +3780,7 @@
         <v>531</v>
       </c>
       <c r="D68">
-        <v>883</v>
+        <v>749</v>
       </c>
       <c r="F68" t="s">
         <v>684</v>
@@ -3800,7 +3800,7 @@
         <v>531</v>
       </c>
       <c r="D69">
-        <v>861</v>
+        <v>918</v>
       </c>
       <c r="F69" t="s">
         <v>684</v>
@@ -3820,7 +3820,7 @@
         <v>531</v>
       </c>
       <c r="D70">
-        <v>543</v>
+        <v>646</v>
       </c>
       <c r="F70" t="s">
         <v>684</v>
@@ -3840,7 +3840,7 @@
         <v>532</v>
       </c>
       <c r="D71">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="F71" t="s">
         <v>684</v>
@@ -3860,7 +3860,7 @@
         <v>532</v>
       </c>
       <c r="D72">
-        <v>835</v>
+        <v>737</v>
       </c>
       <c r="F72" t="s">
         <v>684</v>
@@ -3880,7 +3880,7 @@
         <v>532</v>
       </c>
       <c r="D73">
-        <v>900</v>
+        <v>785</v>
       </c>
       <c r="F73" t="s">
         <v>684</v>
@@ -3900,7 +3900,7 @@
         <v>532</v>
       </c>
       <c r="D74">
-        <v>759</v>
+        <v>804</v>
       </c>
       <c r="F74" t="s">
         <v>684</v>
@@ -3920,7 +3920,7 @@
         <v>533</v>
       </c>
       <c r="D75">
-        <v>866</v>
+        <v>989</v>
       </c>
       <c r="F75" t="s">
         <v>684</v>
@@ -3940,7 +3940,7 @@
         <v>534</v>
       </c>
       <c r="D76">
-        <v>577</v>
+        <v>769</v>
       </c>
       <c r="F76" t="s">
         <v>684</v>
@@ -3960,7 +3960,7 @@
         <v>534</v>
       </c>
       <c r="D77">
-        <v>713</v>
+        <v>589</v>
       </c>
       <c r="F77" t="s">
         <v>684</v>
@@ -3980,7 +3980,7 @@
         <v>534</v>
       </c>
       <c r="D78">
-        <v>818</v>
+        <v>871</v>
       </c>
       <c r="F78" t="s">
         <v>684</v>
@@ -4000,7 +4000,7 @@
         <v>535</v>
       </c>
       <c r="D79">
-        <v>558</v>
+        <v>716</v>
       </c>
       <c r="F79" t="s">
         <v>684</v>
@@ -4020,7 +4020,7 @@
         <v>535</v>
       </c>
       <c r="D80">
-        <v>710</v>
+        <v>911</v>
       </c>
       <c r="F80" t="s">
         <v>684</v>
@@ -4040,7 +4040,7 @@
         <v>535</v>
       </c>
       <c r="D81">
-        <v>740</v>
+        <v>910</v>
       </c>
       <c r="F81" t="s">
         <v>684</v>
@@ -4060,7 +4060,7 @@
         <v>535</v>
       </c>
       <c r="D82">
-        <v>757</v>
+        <v>583</v>
       </c>
       <c r="F82" t="s">
         <v>684</v>
@@ -4080,7 +4080,7 @@
         <v>536</v>
       </c>
       <c r="D83">
-        <v>575</v>
+        <v>813</v>
       </c>
       <c r="F83" t="s">
         <v>684</v>
@@ -4100,7 +4100,7 @@
         <v>537</v>
       </c>
       <c r="D84">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="F84" t="s">
         <v>684</v>
@@ -4528,7 +4528,7 @@
         <v>546</v>
       </c>
       <c r="D109">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F109" t="s">
         <v>684</v>
@@ -4548,7 +4548,7 @@
         <v>546</v>
       </c>
       <c r="D110">
-        <v>992</v>
+        <v>701</v>
       </c>
       <c r="F110" t="s">
         <v>684</v>
@@ -4568,7 +4568,7 @@
         <v>547</v>
       </c>
       <c r="D111">
-        <v>942</v>
+        <v>721</v>
       </c>
       <c r="F111" t="s">
         <v>684</v>
@@ -4588,7 +4588,7 @@
         <v>547</v>
       </c>
       <c r="D112">
-        <v>800</v>
+        <v>751</v>
       </c>
       <c r="F112" t="s">
         <v>684</v>
@@ -4608,7 +4608,7 @@
         <v>547</v>
       </c>
       <c r="D113">
-        <v>613</v>
+        <v>961</v>
       </c>
       <c r="F113" t="s">
         <v>684</v>
@@ -4628,7 +4628,7 @@
         <v>547</v>
       </c>
       <c r="D114">
-        <v>876</v>
+        <v>627</v>
       </c>
       <c r="F114" t="s">
         <v>684</v>
@@ -4648,7 +4648,7 @@
         <v>548</v>
       </c>
       <c r="D115">
-        <v>566</v>
+        <v>849</v>
       </c>
       <c r="F115" t="s">
         <v>684</v>
@@ -4668,7 +4668,7 @@
         <v>548</v>
       </c>
       <c r="D116">
-        <v>821</v>
+        <v>602</v>
       </c>
       <c r="F116" t="s">
         <v>684</v>
@@ -4688,7 +4688,7 @@
         <v>549</v>
       </c>
       <c r="D117">
-        <v>820</v>
+        <v>953</v>
       </c>
       <c r="F117" t="s">
         <v>684</v>
@@ -4708,7 +4708,7 @@
         <v>549</v>
       </c>
       <c r="D118">
-        <v>971</v>
+        <v>742</v>
       </c>
       <c r="F118" t="s">
         <v>684</v>
@@ -4728,7 +4728,7 @@
         <v>549</v>
       </c>
       <c r="D119">
-        <v>725</v>
+        <v>1000</v>
       </c>
       <c r="F119" t="s">
         <v>684</v>
@@ -4748,7 +4748,7 @@
         <v>549</v>
       </c>
       <c r="D120">
-        <v>751</v>
+        <v>528</v>
       </c>
       <c r="F120" t="s">
         <v>684</v>
@@ -4768,7 +4768,7 @@
         <v>550</v>
       </c>
       <c r="D121">
-        <v>573</v>
+        <v>784</v>
       </c>
       <c r="F121" t="s">
         <v>684</v>
@@ -4788,7 +4788,7 @@
         <v>550</v>
       </c>
       <c r="D122">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="F122" t="s">
         <v>684</v>
@@ -4808,7 +4808,7 @@
         <v>550</v>
       </c>
       <c r="D123">
-        <v>857</v>
+        <v>804</v>
       </c>
       <c r="F123" t="s">
         <v>684</v>
@@ -4828,7 +4828,7 @@
         <v>551</v>
       </c>
       <c r="D124">
-        <v>1000</v>
+        <v>693</v>
       </c>
       <c r="F124" t="s">
         <v>684</v>
@@ -4848,7 +4848,7 @@
         <v>551</v>
       </c>
       <c r="D125">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="F125" t="s">
         <v>684</v>
@@ -4868,7 +4868,7 @@
         <v>551</v>
       </c>
       <c r="D126">
-        <v>824</v>
+        <v>956</v>
       </c>
       <c r="F126" t="s">
         <v>684</v>
@@ -4888,7 +4888,7 @@
         <v>551</v>
       </c>
       <c r="D127">
-        <v>750</v>
+        <v>911</v>
       </c>
       <c r="F127" t="s">
         <v>684</v>
@@ -4908,7 +4908,7 @@
         <v>552</v>
       </c>
       <c r="D128">
-        <v>885</v>
+        <v>655</v>
       </c>
       <c r="F128" t="s">
         <v>684</v>
@@ -4928,7 +4928,7 @@
         <v>552</v>
       </c>
       <c r="D129">
-        <v>964</v>
+        <v>588</v>
       </c>
       <c r="F129" t="s">
         <v>684</v>
@@ -4948,7 +4948,7 @@
         <v>552</v>
       </c>
       <c r="D130">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F130" t="s">
         <v>684</v>
@@ -4968,7 +4968,7 @@
         <v>552</v>
       </c>
       <c r="D131">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="F131" t="s">
         <v>684</v>
@@ -4988,7 +4988,7 @@
         <v>553</v>
       </c>
       <c r="D132">
-        <v>731</v>
+        <v>593</v>
       </c>
       <c r="F132" t="s">
         <v>684</v>
@@ -5008,7 +5008,7 @@
         <v>553</v>
       </c>
       <c r="D133">
-        <v>829</v>
+        <v>890</v>
       </c>
       <c r="F133" t="s">
         <v>684</v>
@@ -5028,7 +5028,7 @@
         <v>553</v>
       </c>
       <c r="D134">
-        <v>905</v>
+        <v>990</v>
       </c>
       <c r="F134" t="s">
         <v>684</v>
@@ -5048,7 +5048,7 @@
         <v>553</v>
       </c>
       <c r="D135">
-        <v>620</v>
+        <v>676</v>
       </c>
       <c r="F135" t="s">
         <v>684</v>
@@ -5068,7 +5068,7 @@
         <v>554</v>
       </c>
       <c r="D136">
-        <v>637</v>
+        <v>758</v>
       </c>
       <c r="F136" t="s">
         <v>684</v>
@@ -5088,7 +5088,7 @@
         <v>554</v>
       </c>
       <c r="D137">
-        <v>634</v>
+        <v>840</v>
       </c>
       <c r="F137" t="s">
         <v>684</v>
@@ -5108,7 +5108,7 @@
         <v>554</v>
       </c>
       <c r="D138">
-        <v>900</v>
+        <v>998</v>
       </c>
       <c r="F138" t="s">
         <v>684</v>
@@ -5128,7 +5128,7 @@
         <v>554</v>
       </c>
       <c r="D139">
-        <v>657</v>
+        <v>997</v>
       </c>
       <c r="F139" t="s">
         <v>684</v>
@@ -5148,7 +5148,7 @@
         <v>555</v>
       </c>
       <c r="D140">
-        <v>846</v>
+        <v>941</v>
       </c>
       <c r="F140" t="s">
         <v>684</v>
@@ -5168,7 +5168,7 @@
         <v>555</v>
       </c>
       <c r="D141">
-        <v>775</v>
+        <v>816</v>
       </c>
       <c r="F141" t="s">
         <v>684</v>
@@ -5188,7 +5188,7 @@
         <v>555</v>
       </c>
       <c r="D142">
-        <v>686</v>
+        <v>930</v>
       </c>
       <c r="F142" t="s">
         <v>684</v>
@@ -5208,7 +5208,7 @@
         <v>556</v>
       </c>
       <c r="D143">
-        <v>939</v>
+        <v>696</v>
       </c>
       <c r="F143" t="s">
         <v>684</v>
@@ -5228,7 +5228,7 @@
         <v>556</v>
       </c>
       <c r="D144">
-        <v>581</v>
+        <v>929</v>
       </c>
       <c r="F144" t="s">
         <v>684</v>
@@ -5248,7 +5248,7 @@
         <v>556</v>
       </c>
       <c r="D145">
-        <v>689</v>
+        <v>784</v>
       </c>
       <c r="F145" t="s">
         <v>684</v>
@@ -5268,7 +5268,7 @@
         <v>556</v>
       </c>
       <c r="D146">
-        <v>597</v>
+        <v>915</v>
       </c>
       <c r="F146" t="s">
         <v>684</v>
@@ -5288,7 +5288,7 @@
         <v>557</v>
       </c>
       <c r="D147">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F147" t="s">
         <v>684</v>
@@ -5308,7 +5308,7 @@
         <v>557</v>
       </c>
       <c r="D148">
-        <v>512</v>
+        <v>895</v>
       </c>
       <c r="F148" t="s">
         <v>684</v>
@@ -5328,7 +5328,7 @@
         <v>557</v>
       </c>
       <c r="D149">
-        <v>702</v>
+        <v>841</v>
       </c>
       <c r="F149" t="s">
         <v>684</v>
@@ -5348,7 +5348,7 @@
         <v>557</v>
       </c>
       <c r="D150">
-        <v>707</v>
+        <v>635</v>
       </c>
       <c r="F150" t="s">
         <v>684</v>
@@ -5368,7 +5368,7 @@
         <v>558</v>
       </c>
       <c r="D151">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="F151" t="s">
         <v>684</v>
@@ -5388,7 +5388,7 @@
         <v>558</v>
       </c>
       <c r="D152">
-        <v>628</v>
+        <v>904</v>
       </c>
       <c r="F152" t="s">
         <v>684</v>
@@ -5408,7 +5408,7 @@
         <v>558</v>
       </c>
       <c r="D153">
-        <v>675</v>
+        <v>634</v>
       </c>
       <c r="F153" t="s">
         <v>684</v>
@@ -5428,7 +5428,7 @@
         <v>558</v>
       </c>
       <c r="D154">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="F154" t="s">
         <v>684</v>
@@ -5448,7 +5448,7 @@
         <v>559</v>
       </c>
       <c r="D155">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="F155" t="s">
         <v>684</v>
@@ -5468,7 +5468,7 @@
         <v>559</v>
       </c>
       <c r="D156">
-        <v>762</v>
+        <v>842</v>
       </c>
       <c r="F156" t="s">
         <v>684</v>
@@ -5488,7 +5488,7 @@
         <v>559</v>
       </c>
       <c r="D157">
-        <v>890</v>
+        <v>711</v>
       </c>
       <c r="F157" t="s">
         <v>684</v>
@@ -5508,7 +5508,7 @@
         <v>559</v>
       </c>
       <c r="D158">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="F158" t="s">
         <v>684</v>
@@ -5528,7 +5528,7 @@
         <v>560</v>
       </c>
       <c r="D159">
-        <v>845</v>
+        <v>613</v>
       </c>
       <c r="F159" t="s">
         <v>684</v>
@@ -5548,7 +5548,7 @@
         <v>560</v>
       </c>
       <c r="D160">
-        <v>975</v>
+        <v>547</v>
       </c>
       <c r="F160" t="s">
         <v>684</v>
@@ -5568,7 +5568,7 @@
         <v>560</v>
       </c>
       <c r="D161">
-        <v>533</v>
+        <v>878</v>
       </c>
       <c r="F161" t="s">
         <v>684</v>
@@ -5588,7 +5588,7 @@
         <v>560</v>
       </c>
       <c r="D162">
-        <v>555</v>
+        <v>849</v>
       </c>
       <c r="F162" t="s">
         <v>684</v>
@@ -5608,7 +5608,7 @@
         <v>561</v>
       </c>
       <c r="D163">
-        <v>762</v>
+        <v>830</v>
       </c>
       <c r="F163" t="s">
         <v>684</v>
@@ -5628,7 +5628,7 @@
         <v>561</v>
       </c>
       <c r="D164">
-        <v>690</v>
+        <v>855</v>
       </c>
       <c r="F164" t="s">
         <v>684</v>
@@ -5648,7 +5648,7 @@
         <v>561</v>
       </c>
       <c r="D165">
-        <v>523</v>
+        <v>917</v>
       </c>
       <c r="F165" t="s">
         <v>684</v>
@@ -5668,7 +5668,7 @@
         <v>561</v>
       </c>
       <c r="D166">
-        <v>931</v>
+        <v>798</v>
       </c>
       <c r="F166" t="s">
         <v>684</v>
@@ -5688,7 +5688,7 @@
         <v>562</v>
       </c>
       <c r="D167">
-        <v>619</v>
+        <v>790</v>
       </c>
       <c r="F167" t="s">
         <v>684</v>
@@ -5708,7 +5708,7 @@
         <v>562</v>
       </c>
       <c r="D168">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="F168" t="s">
         <v>684</v>
@@ -5728,7 +5728,7 @@
         <v>562</v>
       </c>
       <c r="D169">
-        <v>930</v>
+        <v>835</v>
       </c>
       <c r="F169" t="s">
         <v>684</v>
@@ -5748,7 +5748,7 @@
         <v>563</v>
       </c>
       <c r="D170">
-        <v>842</v>
+        <v>548</v>
       </c>
       <c r="F170" t="s">
         <v>684</v>
@@ -5768,7 +5768,7 @@
         <v>563</v>
       </c>
       <c r="D171">
-        <v>974</v>
+        <v>899</v>
       </c>
       <c r="F171" t="s">
         <v>684</v>
@@ -5788,7 +5788,7 @@
         <v>563</v>
       </c>
       <c r="D172">
-        <v>705</v>
+        <v>953</v>
       </c>
       <c r="F172" t="s">
         <v>684</v>
@@ -5808,7 +5808,7 @@
         <v>563</v>
       </c>
       <c r="D173">
-        <v>955</v>
+        <v>559</v>
       </c>
       <c r="F173" t="s">
         <v>684</v>
@@ -5828,7 +5828,7 @@
         <v>564</v>
       </c>
       <c r="D174">
-        <v>926</v>
+        <v>698</v>
       </c>
       <c r="F174" t="s">
         <v>684</v>
@@ -5848,7 +5848,7 @@
         <v>564</v>
       </c>
       <c r="D175">
-        <v>787</v>
+        <v>704</v>
       </c>
       <c r="F175" t="s">
         <v>684</v>
@@ -5868,7 +5868,7 @@
         <v>564</v>
       </c>
       <c r="D176">
-        <v>736</v>
+        <v>564</v>
       </c>
       <c r="F176" t="s">
         <v>684</v>
@@ -5888,7 +5888,7 @@
         <v>564</v>
       </c>
       <c r="D177">
-        <v>935</v>
+        <v>587</v>
       </c>
       <c r="F177" t="s">
         <v>684</v>
@@ -5908,7 +5908,7 @@
         <v>565</v>
       </c>
       <c r="D178">
-        <v>968</v>
+        <v>811</v>
       </c>
       <c r="F178" t="s">
         <v>684</v>
@@ -5928,7 +5928,7 @@
         <v>565</v>
       </c>
       <c r="D179">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="F179" t="s">
         <v>684</v>
@@ -5948,7 +5948,7 @@
         <v>565</v>
       </c>
       <c r="D180">
-        <v>573</v>
+        <v>886</v>
       </c>
       <c r="F180" t="s">
         <v>684</v>
@@ -5968,7 +5968,7 @@
         <v>566</v>
       </c>
       <c r="D181">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="F181" t="s">
         <v>684</v>
@@ -5988,7 +5988,7 @@
         <v>566</v>
       </c>
       <c r="D182">
-        <v>930</v>
+        <v>502</v>
       </c>
       <c r="F182" t="s">
         <v>684</v>
@@ -6008,7 +6008,7 @@
         <v>566</v>
       </c>
       <c r="D183">
-        <v>688</v>
+        <v>819</v>
       </c>
       <c r="F183" t="s">
         <v>684</v>
@@ -6028,7 +6028,7 @@
         <v>566</v>
       </c>
       <c r="D184">
-        <v>696</v>
+        <v>554</v>
       </c>
       <c r="F184" t="s">
         <v>684</v>
@@ -6048,7 +6048,7 @@
         <v>567</v>
       </c>
       <c r="D185">
-        <v>893</v>
+        <v>954</v>
       </c>
       <c r="F185" t="s">
         <v>684</v>
@@ -6068,7 +6068,7 @@
         <v>567</v>
       </c>
       <c r="D186">
-        <v>865</v>
+        <v>906</v>
       </c>
       <c r="F186" t="s">
         <v>684</v>
@@ -6088,7 +6088,7 @@
         <v>567</v>
       </c>
       <c r="D187">
-        <v>671</v>
+        <v>771</v>
       </c>
       <c r="F187" t="s">
         <v>684</v>
@@ -6108,7 +6108,7 @@
         <v>567</v>
       </c>
       <c r="D188">
-        <v>516</v>
+        <v>944</v>
       </c>
       <c r="F188" t="s">
         <v>684</v>
@@ -6128,7 +6128,7 @@
         <v>568</v>
       </c>
       <c r="D189">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F189" t="s">
         <v>684</v>
@@ -6148,7 +6148,7 @@
         <v>568</v>
       </c>
       <c r="D190">
-        <v>548</v>
+        <v>932</v>
       </c>
       <c r="F190" t="s">
         <v>684</v>
@@ -6168,7 +6168,7 @@
         <v>568</v>
       </c>
       <c r="D191">
-        <v>659</v>
+        <v>560</v>
       </c>
       <c r="F191" t="s">
         <v>684</v>
@@ -6188,7 +6188,7 @@
         <v>568</v>
       </c>
       <c r="D192">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="F192" t="s">
         <v>684</v>
@@ -6208,7 +6208,7 @@
         <v>569</v>
       </c>
       <c r="D193">
-        <v>640</v>
+        <v>929</v>
       </c>
       <c r="F193" t="s">
         <v>684</v>
@@ -6228,7 +6228,7 @@
         <v>569</v>
       </c>
       <c r="D194">
-        <v>878</v>
+        <v>632</v>
       </c>
       <c r="F194" t="s">
         <v>684</v>
@@ -6248,7 +6248,7 @@
         <v>569</v>
       </c>
       <c r="D195">
-        <v>672</v>
+        <v>914</v>
       </c>
       <c r="F195" t="s">
         <v>684</v>
@@ -6268,7 +6268,7 @@
         <v>569</v>
       </c>
       <c r="D196">
-        <v>797</v>
+        <v>945</v>
       </c>
       <c r="F196" t="s">
         <v>684</v>
@@ -6339,7 +6339,7 @@
         <v>570</v>
       </c>
       <c r="D200">
-        <v>686</v>
+        <v>994</v>
       </c>
       <c r="F200" t="s">
         <v>684</v>
@@ -6359,7 +6359,7 @@
         <v>570</v>
       </c>
       <c r="D201">
-        <v>809</v>
+        <v>733</v>
       </c>
       <c r="F201" t="s">
         <v>684</v>
@@ -6379,7 +6379,7 @@
         <v>571</v>
       </c>
       <c r="D202">
-        <v>963</v>
+        <v>744</v>
       </c>
       <c r="F202" t="s">
         <v>684</v>
@@ -6399,7 +6399,7 @@
         <v>571</v>
       </c>
       <c r="D203">
-        <v>880</v>
+        <v>644</v>
       </c>
       <c r="F203" t="s">
         <v>684</v>
@@ -6419,7 +6419,7 @@
         <v>572</v>
       </c>
       <c r="D204">
-        <v>683</v>
+        <v>610</v>
       </c>
       <c r="F204" t="s">
         <v>684</v>
@@ -6439,7 +6439,7 @@
         <v>572</v>
       </c>
       <c r="D205">
-        <v>731</v>
+        <v>661</v>
       </c>
       <c r="F205" t="s">
         <v>684</v>
@@ -6459,7 +6459,7 @@
         <v>572</v>
       </c>
       <c r="D206">
-        <v>935</v>
+        <v>709</v>
       </c>
       <c r="F206" t="s">
         <v>684</v>
@@ -6479,7 +6479,7 @@
         <v>572</v>
       </c>
       <c r="D207">
-        <v>907</v>
+        <v>613</v>
       </c>
       <c r="F207" t="s">
         <v>684</v>
@@ -6499,7 +6499,7 @@
         <v>573</v>
       </c>
       <c r="D208">
-        <v>502</v>
+        <v>722</v>
       </c>
       <c r="F208" t="s">
         <v>684</v>
@@ -6519,7 +6519,7 @@
         <v>573</v>
       </c>
       <c r="D209">
-        <v>941</v>
+        <v>998</v>
       </c>
       <c r="F209" t="s">
         <v>684</v>
@@ -6539,7 +6539,7 @@
         <v>573</v>
       </c>
       <c r="D210">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="F210" t="s">
         <v>684</v>
@@ -6559,7 +6559,7 @@
         <v>573</v>
       </c>
       <c r="D211">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="F211" t="s">
         <v>684</v>
@@ -6579,7 +6579,7 @@
         <v>574</v>
       </c>
       <c r="D212">
-        <v>822</v>
+        <v>922</v>
       </c>
       <c r="F212" t="s">
         <v>684</v>
@@ -6599,7 +6599,7 @@
         <v>574</v>
       </c>
       <c r="D213">
-        <v>994</v>
+        <v>651</v>
       </c>
       <c r="F213" t="s">
         <v>684</v>
@@ -6619,7 +6619,7 @@
         <v>574</v>
       </c>
       <c r="D214">
-        <v>903</v>
+        <v>693</v>
       </c>
       <c r="F214" t="s">
         <v>684</v>
@@ -6639,7 +6639,7 @@
         <v>574</v>
       </c>
       <c r="D215">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="F215" t="s">
         <v>684</v>
@@ -6659,7 +6659,7 @@
         <v>575</v>
       </c>
       <c r="D216">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="F216" t="s">
         <v>684</v>
@@ -6679,7 +6679,7 @@
         <v>575</v>
       </c>
       <c r="D217">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="F217" t="s">
         <v>684</v>
@@ -6699,7 +6699,7 @@
         <v>575</v>
       </c>
       <c r="D218">
-        <v>537</v>
+        <v>741</v>
       </c>
       <c r="F218" t="s">
         <v>684</v>
@@ -6719,7 +6719,7 @@
         <v>575</v>
       </c>
       <c r="D219">
-        <v>846</v>
+        <v>667</v>
       </c>
       <c r="F219" t="s">
         <v>684</v>
@@ -6739,7 +6739,7 @@
         <v>576</v>
       </c>
       <c r="D220">
-        <v>793</v>
+        <v>665</v>
       </c>
       <c r="F220" t="s">
         <v>684</v>
@@ -6759,7 +6759,7 @@
         <v>576</v>
       </c>
       <c r="D221">
-        <v>922</v>
+        <v>984</v>
       </c>
       <c r="F221" t="s">
         <v>684</v>
@@ -6779,7 +6779,7 @@
         <v>576</v>
       </c>
       <c r="D222">
-        <v>1000</v>
+        <v>810</v>
       </c>
       <c r="F222" t="s">
         <v>684</v>
@@ -6799,7 +6799,7 @@
         <v>576</v>
       </c>
       <c r="D223">
-        <v>527</v>
+        <v>679</v>
       </c>
       <c r="F223" t="s">
         <v>684</v>
@@ -6819,7 +6819,7 @@
         <v>577</v>
       </c>
       <c r="D224">
-        <v>698</v>
+        <v>557</v>
       </c>
       <c r="F224" t="s">
         <v>684</v>
@@ -6839,7 +6839,7 @@
         <v>578</v>
       </c>
       <c r="D225">
-        <v>724</v>
+        <v>944</v>
       </c>
       <c r="F225" t="s">
         <v>684</v>
@@ -6859,7 +6859,7 @@
         <v>579</v>
       </c>
       <c r="D226">
-        <v>801</v>
+        <v>889</v>
       </c>
       <c r="F226" t="s">
         <v>684</v>
@@ -6879,7 +6879,7 @@
         <v>580</v>
       </c>
       <c r="D227">
-        <v>968</v>
+        <v>534</v>
       </c>
       <c r="F227" t="s">
         <v>684</v>
@@ -6899,7 +6899,7 @@
         <v>581</v>
       </c>
       <c r="D228">
-        <v>785</v>
+        <v>613</v>
       </c>
       <c r="F228" t="s">
         <v>684</v>
@@ -6919,7 +6919,7 @@
         <v>581</v>
       </c>
       <c r="D229">
-        <v>838</v>
+        <v>940</v>
       </c>
       <c r="F229" t="s">
         <v>684</v>
@@ -6939,7 +6939,7 @@
         <v>581</v>
       </c>
       <c r="D230">
-        <v>878</v>
+        <v>635</v>
       </c>
       <c r="F230" t="s">
         <v>684</v>
@@ -6959,7 +6959,7 @@
         <v>581</v>
       </c>
       <c r="D231">
-        <v>547</v>
+        <v>848</v>
       </c>
       <c r="F231" t="s">
         <v>684</v>
@@ -6979,7 +6979,7 @@
         <v>582</v>
       </c>
       <c r="D232">
-        <v>612</v>
+        <v>719</v>
       </c>
       <c r="F232" t="s">
         <v>684</v>
@@ -6999,7 +6999,7 @@
         <v>582</v>
       </c>
       <c r="D233">
-        <v>793</v>
+        <v>616</v>
       </c>
       <c r="F233" t="s">
         <v>684</v>
@@ -7019,7 +7019,7 @@
         <v>582</v>
       </c>
       <c r="D234">
-        <v>745</v>
+        <v>860</v>
       </c>
       <c r="F234" t="s">
         <v>684</v>
@@ -7039,7 +7039,7 @@
         <v>582</v>
       </c>
       <c r="D235">
-        <v>636</v>
+        <v>988</v>
       </c>
       <c r="F235" t="s">
         <v>684</v>
@@ -7059,7 +7059,7 @@
         <v>583</v>
       </c>
       <c r="D236">
-        <v>863</v>
+        <v>618</v>
       </c>
       <c r="F236" t="s">
         <v>684</v>
@@ -7079,7 +7079,7 @@
         <v>583</v>
       </c>
       <c r="D237">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F237" t="s">
         <v>684</v>
@@ -7099,7 +7099,7 @@
         <v>583</v>
       </c>
       <c r="D238">
-        <v>879</v>
+        <v>816</v>
       </c>
       <c r="F238" t="s">
         <v>684</v>
@@ -7119,7 +7119,7 @@
         <v>583</v>
       </c>
       <c r="D239">
-        <v>665</v>
+        <v>832</v>
       </c>
       <c r="F239" t="s">
         <v>684</v>
@@ -7139,7 +7139,7 @@
         <v>584</v>
       </c>
       <c r="D240">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="F240" t="s">
         <v>684</v>
@@ -7159,7 +7159,7 @@
         <v>584</v>
       </c>
       <c r="D241">
-        <v>824</v>
+        <v>940</v>
       </c>
       <c r="F241" t="s">
         <v>684</v>
@@ -7179,7 +7179,7 @@
         <v>584</v>
       </c>
       <c r="D242">
-        <v>635</v>
+        <v>539</v>
       </c>
       <c r="F242" t="s">
         <v>684</v>
@@ -7199,7 +7199,7 @@
         <v>584</v>
       </c>
       <c r="D243">
-        <v>599</v>
+        <v>953</v>
       </c>
       <c r="F243" t="s">
         <v>684</v>
@@ -7219,7 +7219,7 @@
         <v>585</v>
       </c>
       <c r="D244">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="F244" t="s">
         <v>684</v>
@@ -7239,7 +7239,7 @@
         <v>585</v>
       </c>
       <c r="D245">
-        <v>819</v>
+        <v>745</v>
       </c>
       <c r="F245" t="s">
         <v>684</v>
@@ -7259,7 +7259,7 @@
         <v>585</v>
       </c>
       <c r="D246">
-        <v>617</v>
+        <v>754</v>
       </c>
       <c r="F246" t="s">
         <v>684</v>
@@ -7279,7 +7279,7 @@
         <v>585</v>
       </c>
       <c r="D247">
-        <v>588</v>
+        <v>523</v>
       </c>
       <c r="F247" t="s">
         <v>684</v>
@@ -7299,7 +7299,7 @@
         <v>586</v>
       </c>
       <c r="D248">
-        <v>695</v>
+        <v>854</v>
       </c>
       <c r="F248" t="s">
         <v>684</v>
@@ -7319,7 +7319,7 @@
         <v>586</v>
       </c>
       <c r="D249">
-        <v>634</v>
+        <v>531</v>
       </c>
       <c r="F249" t="s">
         <v>684</v>
@@ -7339,7 +7339,7 @@
         <v>586</v>
       </c>
       <c r="D250">
-        <v>781</v>
+        <v>863</v>
       </c>
       <c r="F250" t="s">
         <v>684</v>
@@ -7359,7 +7359,7 @@
         <v>586</v>
       </c>
       <c r="D251">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F251" t="s">
         <v>684</v>
@@ -7447,7 +7447,7 @@
         <v>588</v>
       </c>
       <c r="D256">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="F256" t="s">
         <v>684</v>
@@ -7467,7 +7467,7 @@
         <v>588</v>
       </c>
       <c r="D257">
-        <v>764</v>
+        <v>608</v>
       </c>
       <c r="F257" t="s">
         <v>684</v>
@@ -7487,7 +7487,7 @@
         <v>588</v>
       </c>
       <c r="D258">
-        <v>588</v>
+        <v>500</v>
       </c>
       <c r="F258" t="s">
         <v>684</v>
@@ -7507,7 +7507,7 @@
         <v>588</v>
       </c>
       <c r="D259">
-        <v>559</v>
+        <v>951</v>
       </c>
       <c r="F259" t="s">
         <v>684</v>
@@ -7527,7 +7527,7 @@
         <v>589</v>
       </c>
       <c r="D260">
-        <v>698</v>
+        <v>609</v>
       </c>
       <c r="F260" t="s">
         <v>684</v>
@@ -7547,7 +7547,7 @@
         <v>589</v>
       </c>
       <c r="D261">
-        <v>641</v>
+        <v>821</v>
       </c>
       <c r="F261" t="s">
         <v>684</v>
@@ -7567,7 +7567,7 @@
         <v>589</v>
       </c>
       <c r="D262">
-        <v>915</v>
+        <v>695</v>
       </c>
       <c r="F262" t="s">
         <v>684</v>
@@ -7587,7 +7587,7 @@
         <v>589</v>
       </c>
       <c r="D263">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="F263" t="s">
         <v>684</v>
@@ -7607,7 +7607,7 @@
         <v>590</v>
       </c>
       <c r="D264">
-        <v>702</v>
+        <v>906</v>
       </c>
       <c r="F264" t="s">
         <v>684</v>
@@ -7627,7 +7627,7 @@
         <v>590</v>
       </c>
       <c r="D265">
-        <v>668</v>
+        <v>764</v>
       </c>
       <c r="F265" t="s">
         <v>684</v>
@@ -7647,7 +7647,7 @@
         <v>590</v>
       </c>
       <c r="D266">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="F266" t="s">
         <v>684</v>
@@ -7667,7 +7667,7 @@
         <v>590</v>
       </c>
       <c r="D267">
-        <v>854</v>
+        <v>783</v>
       </c>
       <c r="F267" t="s">
         <v>684</v>
@@ -7687,7 +7687,7 @@
         <v>591</v>
       </c>
       <c r="D268">
-        <v>768</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
         <v>684</v>
@@ -7707,7 +7707,7 @@
         <v>591</v>
       </c>
       <c r="D269">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="F269" t="s">
         <v>684</v>
@@ -7727,7 +7727,7 @@
         <v>591</v>
       </c>
       <c r="D270">
-        <v>706</v>
+        <v>552</v>
       </c>
       <c r="F270" t="s">
         <v>684</v>
@@ -7747,7 +7747,7 @@
         <v>591</v>
       </c>
       <c r="D271">
-        <v>685</v>
+        <v>598</v>
       </c>
       <c r="F271" t="s">
         <v>684</v>
@@ -7767,7 +7767,7 @@
         <v>592</v>
       </c>
       <c r="D272">
-        <v>765</v>
+        <v>689</v>
       </c>
       <c r="F272" t="s">
         <v>684</v>
@@ -7787,7 +7787,7 @@
         <v>592</v>
       </c>
       <c r="D273">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="F273" t="s">
         <v>684</v>
@@ -7807,7 +7807,7 @@
         <v>592</v>
       </c>
       <c r="D274">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="F274" t="s">
         <v>684</v>
@@ -7827,7 +7827,7 @@
         <v>592</v>
       </c>
       <c r="D275">
-        <v>958</v>
+        <v>688</v>
       </c>
       <c r="F275" t="s">
         <v>684</v>
@@ -7847,7 +7847,7 @@
         <v>593</v>
       </c>
       <c r="D276">
-        <v>605</v>
+        <v>769</v>
       </c>
       <c r="F276" t="s">
         <v>684</v>
@@ -7867,7 +7867,7 @@
         <v>593</v>
       </c>
       <c r="D277">
-        <v>552</v>
+        <v>814</v>
       </c>
       <c r="F277" t="s">
         <v>684</v>
@@ -7887,7 +7887,7 @@
         <v>593</v>
       </c>
       <c r="D278">
-        <v>616</v>
+        <v>851</v>
       </c>
       <c r="F278" t="s">
         <v>684</v>
@@ -7907,7 +7907,7 @@
         <v>593</v>
       </c>
       <c r="D279">
-        <v>677</v>
+        <v>787</v>
       </c>
       <c r="F279" t="s">
         <v>684</v>
@@ -7927,7 +7927,7 @@
         <v>594</v>
       </c>
       <c r="D280">
-        <v>720</v>
+        <v>514</v>
       </c>
       <c r="F280" t="s">
         <v>684</v>
@@ -7947,7 +7947,7 @@
         <v>594</v>
       </c>
       <c r="D281">
-        <v>953</v>
+        <v>839</v>
       </c>
       <c r="F281" t="s">
         <v>684</v>
@@ -7967,7 +7967,7 @@
         <v>594</v>
       </c>
       <c r="D282">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="F282" t="s">
         <v>684</v>
@@ -7987,7 +7987,7 @@
         <v>594</v>
       </c>
       <c r="D283">
-        <v>602</v>
+        <v>530</v>
       </c>
       <c r="F283" t="s">
         <v>684</v>
@@ -8007,7 +8007,7 @@
         <v>595</v>
       </c>
       <c r="D284">
-        <v>769</v>
+        <v>947</v>
       </c>
       <c r="F284" t="s">
         <v>684</v>
@@ -8027,7 +8027,7 @@
         <v>595</v>
       </c>
       <c r="D285">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="F285" t="s">
         <v>684</v>
@@ -8047,7 +8047,7 @@
         <v>595</v>
       </c>
       <c r="D286">
-        <v>995</v>
+        <v>933</v>
       </c>
       <c r="F286" t="s">
         <v>684</v>
@@ -8067,7 +8067,7 @@
         <v>595</v>
       </c>
       <c r="D287">
-        <v>855</v>
+        <v>584</v>
       </c>
       <c r="F287" t="s">
         <v>684</v>
@@ -8087,7 +8087,7 @@
         <v>596</v>
       </c>
       <c r="D288">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="F288" t="s">
         <v>684</v>
@@ -8107,7 +8107,7 @@
         <v>596</v>
       </c>
       <c r="D289">
-        <v>533</v>
+        <v>911</v>
       </c>
       <c r="F289" t="s">
         <v>684</v>
@@ -8127,7 +8127,7 @@
         <v>596</v>
       </c>
       <c r="D290">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="F290" t="s">
         <v>684</v>
@@ -8147,7 +8147,7 @@
         <v>596</v>
       </c>
       <c r="D291">
-        <v>514</v>
+        <v>933</v>
       </c>
       <c r="F291" t="s">
         <v>684</v>
@@ -8167,7 +8167,7 @@
         <v>597</v>
       </c>
       <c r="D292">
-        <v>516</v>
+        <v>983</v>
       </c>
       <c r="F292" t="s">
         <v>684</v>
@@ -8187,7 +8187,7 @@
         <v>597</v>
       </c>
       <c r="D293">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
         <v>684</v>
@@ -8207,7 +8207,7 @@
         <v>597</v>
       </c>
       <c r="D294">
-        <v>686</v>
+        <v>605</v>
       </c>
       <c r="F294" t="s">
         <v>684</v>
@@ -8227,7 +8227,7 @@
         <v>597</v>
       </c>
       <c r="D295">
-        <v>628</v>
+        <v>889</v>
       </c>
       <c r="F295" t="s">
         <v>684</v>
@@ -8247,7 +8247,7 @@
         <v>598</v>
       </c>
       <c r="D296">
-        <v>934</v>
+        <v>760</v>
       </c>
       <c r="F296" t="s">
         <v>684</v>
@@ -8267,7 +8267,7 @@
         <v>598</v>
       </c>
       <c r="D297">
-        <v>983</v>
+        <v>723</v>
       </c>
       <c r="F297" t="s">
         <v>684</v>
@@ -8287,7 +8287,7 @@
         <v>598</v>
       </c>
       <c r="D298">
-        <v>684</v>
+        <v>530</v>
       </c>
       <c r="F298" t="s">
         <v>684</v>
@@ -8307,7 +8307,7 @@
         <v>598</v>
       </c>
       <c r="D299">
-        <v>821</v>
+        <v>966</v>
       </c>
       <c r="F299" t="s">
         <v>684</v>
@@ -8327,7 +8327,7 @@
         <v>599</v>
       </c>
       <c r="D300">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="F300" t="s">
         <v>684</v>
@@ -8347,7 +8347,7 @@
         <v>599</v>
       </c>
       <c r="D301">
-        <v>925</v>
+        <v>985</v>
       </c>
       <c r="F301" t="s">
         <v>684</v>
@@ -8367,7 +8367,7 @@
         <v>599</v>
       </c>
       <c r="D302">
-        <v>768</v>
+        <v>657</v>
       </c>
       <c r="F302" t="s">
         <v>684</v>
@@ -8387,7 +8387,7 @@
         <v>599</v>
       </c>
       <c r="D303">
-        <v>784</v>
+        <v>646</v>
       </c>
       <c r="F303" t="s">
         <v>684</v>
@@ -8407,7 +8407,7 @@
         <v>600</v>
       </c>
       <c r="D304">
-        <v>575</v>
+        <v>988</v>
       </c>
       <c r="F304" t="s">
         <v>684</v>
@@ -8427,7 +8427,7 @@
         <v>600</v>
       </c>
       <c r="D305">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="F305" t="s">
         <v>684</v>
@@ -8447,7 +8447,7 @@
         <v>600</v>
       </c>
       <c r="D306">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="F306" t="s">
         <v>684</v>
@@ -8467,7 +8467,7 @@
         <v>600</v>
       </c>
       <c r="D307">
-        <v>772</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
         <v>684</v>
@@ -8487,7 +8487,7 @@
         <v>601</v>
       </c>
       <c r="D308">
-        <v>734</v>
+        <v>689</v>
       </c>
       <c r="F308" t="s">
         <v>684</v>
@@ -8507,7 +8507,7 @@
         <v>601</v>
       </c>
       <c r="D309">
-        <v>917</v>
+        <v>968</v>
       </c>
       <c r="F309" t="s">
         <v>684</v>
@@ -8527,7 +8527,7 @@
         <v>601</v>
       </c>
       <c r="D310">
-        <v>961</v>
+        <v>638</v>
       </c>
       <c r="F310" t="s">
         <v>684</v>
@@ -8547,7 +8547,7 @@
         <v>601</v>
       </c>
       <c r="D311">
-        <v>890</v>
+        <v>657</v>
       </c>
       <c r="F311" t="s">
         <v>684</v>
@@ -8567,7 +8567,7 @@
         <v>601</v>
       </c>
       <c r="D312">
-        <v>688</v>
+        <v>865</v>
       </c>
       <c r="F312" t="s">
         <v>684</v>
@@ -8587,7 +8587,7 @@
         <v>601</v>
       </c>
       <c r="D313">
-        <v>536</v>
+        <v>647</v>
       </c>
       <c r="F313" t="s">
         <v>684</v>
@@ -8607,7 +8607,7 @@
         <v>601</v>
       </c>
       <c r="D314">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="F314" t="s">
         <v>684</v>
@@ -8627,7 +8627,7 @@
         <v>602</v>
       </c>
       <c r="D315">
-        <v>827</v>
+        <v>914</v>
       </c>
       <c r="F315" t="s">
         <v>684</v>
@@ -8647,7 +8647,7 @@
         <v>602</v>
       </c>
       <c r="D316">
-        <v>833</v>
+        <v>790</v>
       </c>
       <c r="F316" t="s">
         <v>684</v>
@@ -8667,7 +8667,7 @@
         <v>602</v>
       </c>
       <c r="D317">
-        <v>803</v>
+        <v>730</v>
       </c>
       <c r="F317" t="s">
         <v>684</v>
@@ -8687,7 +8687,7 @@
         <v>602</v>
       </c>
       <c r="D318">
-        <v>549</v>
+        <v>773</v>
       </c>
       <c r="F318" t="s">
         <v>684</v>
@@ -8707,7 +8707,7 @@
         <v>603</v>
       </c>
       <c r="D319">
-        <v>730</v>
+        <v>885</v>
       </c>
       <c r="F319" t="s">
         <v>684</v>
@@ -8727,7 +8727,7 @@
         <v>603</v>
       </c>
       <c r="D320">
-        <v>728</v>
+        <v>994</v>
       </c>
       <c r="F320" t="s">
         <v>684</v>
@@ -8747,7 +8747,7 @@
         <v>603</v>
       </c>
       <c r="D321">
-        <v>720</v>
+        <v>871</v>
       </c>
       <c r="F321" t="s">
         <v>684</v>
@@ -8767,7 +8767,7 @@
         <v>603</v>
       </c>
       <c r="D322">
-        <v>645</v>
+        <v>535</v>
       </c>
       <c r="F322" t="s">
         <v>684</v>
@@ -8787,7 +8787,7 @@
         <v>604</v>
       </c>
       <c r="D323">
-        <v>602</v>
+        <v>703</v>
       </c>
       <c r="F323" t="s">
         <v>684</v>
@@ -8807,7 +8807,7 @@
         <v>604</v>
       </c>
       <c r="D324">
-        <v>660</v>
+        <v>957</v>
       </c>
       <c r="F324" t="s">
         <v>684</v>
@@ -8827,7 +8827,7 @@
         <v>604</v>
       </c>
       <c r="D325">
-        <v>844</v>
+        <v>665</v>
       </c>
       <c r="F325" t="s">
         <v>684</v>
@@ -8847,7 +8847,7 @@
         <v>604</v>
       </c>
       <c r="D326">
-        <v>873</v>
+        <v>976</v>
       </c>
       <c r="F326" t="s">
         <v>684</v>
@@ -8867,7 +8867,7 @@
         <v>605</v>
       </c>
       <c r="D327">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="F327" t="s">
         <v>684</v>
@@ -8887,7 +8887,7 @@
         <v>605</v>
       </c>
       <c r="D328">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F328" t="s">
         <v>684</v>
@@ -8907,7 +8907,7 @@
         <v>605</v>
       </c>
       <c r="D329">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="F329" t="s">
         <v>684</v>
@@ -8927,7 +8927,7 @@
         <v>605</v>
       </c>
       <c r="D330">
-        <v>857</v>
+        <v>694</v>
       </c>
       <c r="F330" t="s">
         <v>684</v>
@@ -8947,7 +8947,7 @@
         <v>606</v>
       </c>
       <c r="D331">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F331" t="s">
         <v>684</v>
@@ -8967,7 +8967,7 @@
         <v>606</v>
       </c>
       <c r="D332">
-        <v>932</v>
+        <v>997</v>
       </c>
       <c r="F332" t="s">
         <v>684</v>
@@ -8987,7 +8987,7 @@
         <v>606</v>
       </c>
       <c r="D333">
-        <v>942</v>
+        <v>505</v>
       </c>
       <c r="F333" t="s">
         <v>684</v>
@@ -9007,7 +9007,7 @@
         <v>606</v>
       </c>
       <c r="D334">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="F334" t="s">
         <v>684</v>
@@ -9027,7 +9027,7 @@
         <v>607</v>
       </c>
       <c r="D335">
-        <v>782</v>
+        <v>908</v>
       </c>
       <c r="F335" t="s">
         <v>684</v>
@@ -9047,7 +9047,7 @@
         <v>607</v>
       </c>
       <c r="D336">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="F336" t="s">
         <v>684</v>
@@ -9067,7 +9067,7 @@
         <v>607</v>
       </c>
       <c r="D337">
-        <v>936</v>
+        <v>534</v>
       </c>
       <c r="F337" t="s">
         <v>684</v>
@@ -9087,7 +9087,7 @@
         <v>607</v>
       </c>
       <c r="D338">
-        <v>681</v>
+        <v>991</v>
       </c>
       <c r="F338" t="s">
         <v>684</v>
@@ -9107,7 +9107,7 @@
         <v>608</v>
       </c>
       <c r="D339">
-        <v>901</v>
+        <v>937</v>
       </c>
       <c r="F339" t="s">
         <v>684</v>
@@ -9127,7 +9127,7 @@
         <v>608</v>
       </c>
       <c r="D340">
-        <v>932</v>
+        <v>704</v>
       </c>
       <c r="F340" t="s">
         <v>684</v>
@@ -9147,7 +9147,7 @@
         <v>608</v>
       </c>
       <c r="D341">
-        <v>581</v>
+        <v>800</v>
       </c>
       <c r="F341" t="s">
         <v>684</v>
@@ -9167,7 +9167,7 @@
         <v>608</v>
       </c>
       <c r="D342">
-        <v>608</v>
+        <v>671</v>
       </c>
       <c r="F342" t="s">
         <v>684</v>
@@ -9187,7 +9187,7 @@
         <v>608</v>
       </c>
       <c r="D343">
-        <v>642</v>
+        <v>852</v>
       </c>
       <c r="F343" t="s">
         <v>684</v>
@@ -9207,7 +9207,7 @@
         <v>608</v>
       </c>
       <c r="D344">
-        <v>995</v>
+        <v>815</v>
       </c>
       <c r="F344" t="s">
         <v>684</v>
@@ -9227,7 +9227,7 @@
         <v>608</v>
       </c>
       <c r="D345">
-        <v>519</v>
+        <v>653</v>
       </c>
       <c r="F345" t="s">
         <v>684</v>
@@ -9247,7 +9247,7 @@
         <v>609</v>
       </c>
       <c r="D346">
-        <v>993</v>
+        <v>690</v>
       </c>
       <c r="F346" t="s">
         <v>684</v>
@@ -9267,7 +9267,7 @@
         <v>609</v>
       </c>
       <c r="D347">
-        <v>829</v>
+        <v>661</v>
       </c>
       <c r="F347" t="s">
         <v>684</v>
@@ -9287,7 +9287,7 @@
         <v>609</v>
       </c>
       <c r="D348">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="F348" t="s">
         <v>684</v>
@@ -9324,7 +9324,7 @@
         <v>611</v>
       </c>
       <c r="D350">
-        <v>976</v>
+        <v>782</v>
       </c>
       <c r="F350" t="s">
         <v>684</v>
@@ -9344,7 +9344,7 @@
         <v>611</v>
       </c>
       <c r="D351">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="F351" t="s">
         <v>684</v>
@@ -9364,7 +9364,7 @@
         <v>611</v>
       </c>
       <c r="D352">
-        <v>834</v>
+        <v>981</v>
       </c>
       <c r="F352" t="s">
         <v>684</v>
@@ -9384,7 +9384,7 @@
         <v>611</v>
       </c>
       <c r="D353">
-        <v>883</v>
+        <v>630</v>
       </c>
       <c r="F353" t="s">
         <v>684</v>
@@ -9404,7 +9404,7 @@
         <v>612</v>
       </c>
       <c r="D354">
-        <v>694</v>
+        <v>640</v>
       </c>
       <c r="F354" t="s">
         <v>684</v>
@@ -9424,7 +9424,7 @@
         <v>612</v>
       </c>
       <c r="D355">
-        <v>693</v>
+        <v>755</v>
       </c>
       <c r="F355" t="s">
         <v>684</v>
@@ -9444,7 +9444,7 @@
         <v>612</v>
       </c>
       <c r="D356">
-        <v>654</v>
+        <v>740</v>
       </c>
       <c r="F356" t="s">
         <v>684</v>
@@ -9464,7 +9464,7 @@
         <v>612</v>
       </c>
       <c r="D357">
-        <v>939</v>
+        <v>782</v>
       </c>
       <c r="F357" t="s">
         <v>684</v>
@@ -9586,7 +9586,7 @@
         <v>613</v>
       </c>
       <c r="D364">
-        <v>526</v>
+        <v>958</v>
       </c>
       <c r="F364" t="s">
         <v>684</v>
@@ -9606,7 +9606,7 @@
         <v>613</v>
       </c>
       <c r="D365">
-        <v>834</v>
+        <v>545</v>
       </c>
       <c r="F365" t="s">
         <v>684</v>
@@ -9626,7 +9626,7 @@
         <v>614</v>
       </c>
       <c r="D366">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="F366" t="s">
         <v>684</v>
@@ -9646,7 +9646,7 @@
         <v>615</v>
       </c>
       <c r="D367">
-        <v>563</v>
+        <v>965</v>
       </c>
       <c r="F367" t="s">
         <v>684</v>
@@ -9666,7 +9666,7 @@
         <v>615</v>
       </c>
       <c r="D368">
-        <v>901</v>
+        <v>870</v>
       </c>
       <c r="F368" t="s">
         <v>684</v>
@@ -9686,7 +9686,7 @@
         <v>616</v>
       </c>
       <c r="D369">
-        <v>687</v>
+        <v>754</v>
       </c>
       <c r="F369" t="s">
         <v>684</v>
@@ -9706,7 +9706,7 @@
         <v>617</v>
       </c>
       <c r="D370">
-        <v>860</v>
+        <v>834</v>
       </c>
       <c r="F370" t="s">
         <v>684</v>
@@ -9726,7 +9726,7 @@
         <v>617</v>
       </c>
       <c r="D371">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="F371" t="s">
         <v>684</v>
@@ -9746,7 +9746,7 @@
         <v>617</v>
       </c>
       <c r="D372">
-        <v>548</v>
+        <v>762</v>
       </c>
       <c r="F372" t="s">
         <v>684</v>
@@ -9766,7 +9766,7 @@
         <v>618</v>
       </c>
       <c r="D373">
-        <v>940</v>
+        <v>506</v>
       </c>
       <c r="F373" t="s">
         <v>684</v>
@@ -9786,7 +9786,7 @@
         <v>618</v>
       </c>
       <c r="D374">
-        <v>958</v>
+        <v>635</v>
       </c>
       <c r="F374" t="s">
         <v>684</v>
@@ -9806,7 +9806,7 @@
         <v>618</v>
       </c>
       <c r="D375">
-        <v>666</v>
+        <v>600</v>
       </c>
       <c r="F375" t="s">
         <v>684</v>
@@ -9826,7 +9826,7 @@
         <v>619</v>
       </c>
       <c r="D376">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="F376" t="s">
         <v>684</v>
@@ -9846,7 +9846,7 @@
         <v>619</v>
       </c>
       <c r="D377">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="F377" t="s">
         <v>684</v>
@@ -9866,7 +9866,7 @@
         <v>619</v>
       </c>
       <c r="D378">
-        <v>961</v>
+        <v>584</v>
       </c>
       <c r="F378" t="s">
         <v>684</v>
@@ -9886,7 +9886,7 @@
         <v>620</v>
       </c>
       <c r="D379">
-        <v>524</v>
+        <v>747</v>
       </c>
       <c r="F379" t="s">
         <v>684</v>
@@ -9906,7 +9906,7 @@
         <v>620</v>
       </c>
       <c r="D380">
-        <v>586</v>
+        <v>633</v>
       </c>
       <c r="F380" t="s">
         <v>684</v>
@@ -9926,7 +9926,7 @@
         <v>620</v>
       </c>
       <c r="D381">
-        <v>602</v>
+        <v>859</v>
       </c>
       <c r="F381" t="s">
         <v>684</v>
@@ -9946,7 +9946,7 @@
         <v>621</v>
       </c>
       <c r="D382">
-        <v>702</v>
+        <v>818</v>
       </c>
       <c r="F382" t="s">
         <v>684</v>
@@ -9966,7 +9966,7 @@
         <v>622</v>
       </c>
       <c r="D383">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F383" t="s">
         <v>684</v>
@@ -9986,7 +9986,7 @@
         <v>622</v>
       </c>
       <c r="D384">
-        <v>741</v>
+        <v>994</v>
       </c>
       <c r="F384" t="s">
         <v>684</v>
@@ -10006,7 +10006,7 @@
         <v>623</v>
       </c>
       <c r="D385">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="F385" t="s">
         <v>684</v>
@@ -10026,7 +10026,7 @@
         <v>624</v>
       </c>
       <c r="D386">
-        <v>967</v>
+        <v>681</v>
       </c>
       <c r="F386" t="s">
         <v>684</v>
@@ -10046,7 +10046,7 @@
         <v>624</v>
       </c>
       <c r="D387">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="F387" t="s">
         <v>684</v>
@@ -10066,7 +10066,7 @@
         <v>624</v>
       </c>
       <c r="D388">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="F388" t="s">
         <v>684</v>
@@ -10086,7 +10086,7 @@
         <v>625</v>
       </c>
       <c r="D389">
-        <v>628</v>
+        <v>530</v>
       </c>
       <c r="F389" t="s">
         <v>684</v>
@@ -10106,7 +10106,7 @@
         <v>626</v>
       </c>
       <c r="D390">
-        <v>745</v>
+        <v>960</v>
       </c>
       <c r="F390" t="s">
         <v>684</v>
@@ -10126,7 +10126,7 @@
         <v>626</v>
       </c>
       <c r="D391">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="F391" t="s">
         <v>684</v>
@@ -10146,7 +10146,7 @@
         <v>626</v>
       </c>
       <c r="D392">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="F392" t="s">
         <v>684</v>
@@ -10166,7 +10166,7 @@
         <v>627</v>
       </c>
       <c r="D393">
-        <v>685</v>
+        <v>965</v>
       </c>
       <c r="F393" t="s">
         <v>684</v>
@@ -10186,7 +10186,7 @@
         <v>628</v>
       </c>
       <c r="D394">
-        <v>960</v>
+        <v>881</v>
       </c>
       <c r="F394" t="s">
         <v>684</v>
@@ -10206,7 +10206,7 @@
         <v>628</v>
       </c>
       <c r="D395">
-        <v>911</v>
+        <v>601</v>
       </c>
       <c r="F395" t="s">
         <v>684</v>
@@ -10226,7 +10226,7 @@
         <v>628</v>
       </c>
       <c r="D396">
-        <v>954</v>
+        <v>756</v>
       </c>
       <c r="F396" t="s">
         <v>684</v>
@@ -10246,7 +10246,7 @@
         <v>629</v>
       </c>
       <c r="D397">
-        <v>604</v>
+        <v>877</v>
       </c>
       <c r="F397" t="s">
         <v>684</v>
@@ -10351,7 +10351,7 @@
         <v>632</v>
       </c>
       <c r="D403">
-        <v>975</v>
+        <v>793</v>
       </c>
       <c r="F403" t="s">
         <v>684</v>
@@ -10371,7 +10371,7 @@
         <v>632</v>
       </c>
       <c r="D404">
-        <v>830</v>
+        <v>772</v>
       </c>
       <c r="F404" t="s">
         <v>684</v>
@@ -10391,7 +10391,7 @@
         <v>633</v>
       </c>
       <c r="D405">
-        <v>633</v>
+        <v>834</v>
       </c>
       <c r="F405" t="s">
         <v>684</v>
@@ -10445,7 +10445,7 @@
         <v>635</v>
       </c>
       <c r="D408">
-        <v>828</v>
+        <v>695</v>
       </c>
       <c r="F408" t="s">
         <v>684</v>
@@ -10465,7 +10465,7 @@
         <v>635</v>
       </c>
       <c r="D409">
-        <v>800</v>
+        <v>618</v>
       </c>
       <c r="F409" t="s">
         <v>684</v>
@@ -10485,7 +10485,7 @@
         <v>636</v>
       </c>
       <c r="D410">
-        <v>843</v>
+        <v>777</v>
       </c>
       <c r="F410" t="s">
         <v>684</v>
@@ -10590,7 +10590,7 @@
         <v>640</v>
       </c>
       <c r="D416">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="F416" t="s">
         <v>684</v>
@@ -10610,7 +10610,7 @@
         <v>641</v>
       </c>
       <c r="D417">
-        <v>517</v>
+        <v>830</v>
       </c>
       <c r="F417" t="s">
         <v>684</v>
@@ -10630,7 +10630,7 @@
         <v>641</v>
       </c>
       <c r="D418">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F418" t="s">
         <v>684</v>
@@ -10650,7 +10650,7 @@
         <v>641</v>
       </c>
       <c r="D419">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="F419" t="s">
         <v>684</v>
@@ -10670,7 +10670,7 @@
         <v>642</v>
       </c>
       <c r="D420">
-        <v>542</v>
+        <v>982</v>
       </c>
       <c r="F420" t="s">
         <v>684</v>
@@ -10690,7 +10690,7 @@
         <v>642</v>
       </c>
       <c r="D421">
-        <v>521</v>
+        <v>806</v>
       </c>
       <c r="F421" t="s">
         <v>684</v>
@@ -10710,7 +10710,7 @@
         <v>642</v>
       </c>
       <c r="D422">
-        <v>746</v>
+        <v>860</v>
       </c>
       <c r="F422" t="s">
         <v>684</v>
@@ -10730,7 +10730,7 @@
         <v>643</v>
       </c>
       <c r="D423">
-        <v>975</v>
+        <v>627</v>
       </c>
       <c r="F423" t="s">
         <v>684</v>
@@ -10750,7 +10750,7 @@
         <v>644</v>
       </c>
       <c r="D424">
-        <v>729</v>
+        <v>645</v>
       </c>
       <c r="F424" t="s">
         <v>684</v>
@@ -10770,7 +10770,7 @@
         <v>644</v>
       </c>
       <c r="D425">
-        <v>876</v>
+        <v>608</v>
       </c>
       <c r="F425" t="s">
         <v>684</v>
@@ -10790,7 +10790,7 @@
         <v>645</v>
       </c>
       <c r="D426">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="F426" t="s">
         <v>684</v>
@@ -10810,7 +10810,7 @@
         <v>645</v>
       </c>
       <c r="D427">
-        <v>702</v>
+        <v>897</v>
       </c>
       <c r="F427" t="s">
         <v>684</v>
@@ -10881,7 +10881,7 @@
         <v>648</v>
       </c>
       <c r="D431">
-        <v>904</v>
+        <v>954</v>
       </c>
       <c r="F431" t="s">
         <v>684</v>
@@ -10901,7 +10901,7 @@
         <v>648</v>
       </c>
       <c r="D432">
-        <v>796</v>
+        <v>692</v>
       </c>
       <c r="F432" t="s">
         <v>684</v>
@@ -10921,7 +10921,7 @@
         <v>649</v>
       </c>
       <c r="D433">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="F433" t="s">
         <v>684</v>
@@ -10941,7 +10941,7 @@
         <v>649</v>
       </c>
       <c r="D434">
-        <v>868</v>
+        <v>590</v>
       </c>
       <c r="F434" t="s">
         <v>684</v>
@@ -10961,7 +10961,7 @@
         <v>650</v>
       </c>
       <c r="D435">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F435" t="s">
         <v>684</v>
@@ -10981,7 +10981,7 @@
         <v>650</v>
       </c>
       <c r="D436">
-        <v>730</v>
+        <v>555</v>
       </c>
       <c r="F436" t="s">
         <v>684</v>
@@ -11001,7 +11001,7 @@
         <v>651</v>
       </c>
       <c r="D437">
-        <v>737</v>
+        <v>901</v>
       </c>
       <c r="F437" t="s">
         <v>684</v>
@@ -11021,7 +11021,7 @@
         <v>651</v>
       </c>
       <c r="D438">
-        <v>998</v>
+        <v>851</v>
       </c>
       <c r="F438" t="s">
         <v>684</v>
@@ -11041,7 +11041,7 @@
         <v>652</v>
       </c>
       <c r="D439">
-        <v>917</v>
+        <v>591</v>
       </c>
       <c r="F439" t="s">
         <v>684</v>
@@ -11061,7 +11061,7 @@
         <v>652</v>
       </c>
       <c r="D440">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="F440" t="s">
         <v>684</v>
@@ -11081,7 +11081,7 @@
         <v>653</v>
       </c>
       <c r="D441">
-        <v>729</v>
+        <v>981</v>
       </c>
       <c r="F441" t="s">
         <v>684</v>
@@ -11101,7 +11101,7 @@
         <v>653</v>
       </c>
       <c r="D442">
-        <v>798</v>
+        <v>723</v>
       </c>
       <c r="F442" t="s">
         <v>684</v>
@@ -11121,7 +11121,7 @@
         <v>654</v>
       </c>
       <c r="D443">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="F443" t="s">
         <v>684</v>
@@ -11141,7 +11141,7 @@
         <v>654</v>
       </c>
       <c r="D444">
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="F444" t="s">
         <v>684</v>
@@ -11161,7 +11161,7 @@
         <v>655</v>
       </c>
       <c r="D445">
-        <v>608</v>
+        <v>861</v>
       </c>
       <c r="F445" t="s">
         <v>684</v>
@@ -11181,7 +11181,7 @@
         <v>655</v>
       </c>
       <c r="D446">
-        <v>615</v>
+        <v>923</v>
       </c>
       <c r="F446" t="s">
         <v>684</v>
@@ -11235,7 +11235,7 @@
         <v>656</v>
       </c>
       <c r="D449">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="F449" t="s">
         <v>684</v>
@@ -11255,7 +11255,7 @@
         <v>656</v>
       </c>
       <c r="D450">
-        <v>530</v>
+        <v>966</v>
       </c>
       <c r="F450" t="s">
         <v>684</v>
@@ -11275,7 +11275,7 @@
         <v>657</v>
       </c>
       <c r="D451">
-        <v>938</v>
+        <v>661</v>
       </c>
       <c r="F451" t="s">
         <v>684</v>
@@ -11295,7 +11295,7 @@
         <v>657</v>
       </c>
       <c r="D452">
-        <v>631</v>
+        <v>966</v>
       </c>
       <c r="F452" t="s">
         <v>684</v>
@@ -11315,7 +11315,7 @@
         <v>658</v>
       </c>
       <c r="D453">
-        <v>737</v>
+        <v>543</v>
       </c>
       <c r="F453" t="s">
         <v>684</v>
@@ -11335,7 +11335,7 @@
         <v>658</v>
       </c>
       <c r="D454">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="F454" t="s">
         <v>684</v>
@@ -11355,7 +11355,7 @@
         <v>659</v>
       </c>
       <c r="D455">
-        <v>781</v>
+        <v>916</v>
       </c>
       <c r="F455" t="s">
         <v>684</v>
@@ -11375,7 +11375,7 @@
         <v>659</v>
       </c>
       <c r="D456">
-        <v>677</v>
+        <v>586</v>
       </c>
       <c r="F456" t="s">
         <v>684</v>
@@ -11395,7 +11395,7 @@
         <v>660</v>
       </c>
       <c r="D457">
-        <v>766</v>
+        <v>886</v>
       </c>
       <c r="F457" t="s">
         <v>684</v>
@@ -11415,7 +11415,7 @@
         <v>660</v>
       </c>
       <c r="D458">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="F458" t="s">
         <v>684</v>
@@ -11435,7 +11435,7 @@
         <v>661</v>
       </c>
       <c r="D459">
-        <v>537</v>
+        <v>646</v>
       </c>
       <c r="F459" t="s">
         <v>684</v>
@@ -11455,7 +11455,7 @@
         <v>661</v>
       </c>
       <c r="D460">
-        <v>931</v>
+        <v>652</v>
       </c>
       <c r="F460" t="s">
         <v>684</v>
@@ -11475,7 +11475,7 @@
         <v>662</v>
       </c>
       <c r="D461">
-        <v>967</v>
+        <v>653</v>
       </c>
       <c r="F461" t="s">
         <v>684</v>
@@ -11495,7 +11495,7 @@
         <v>662</v>
       </c>
       <c r="D462">
-        <v>562</v>
+        <v>661</v>
       </c>
       <c r="F462" t="s">
         <v>684</v>
@@ -11515,7 +11515,7 @@
         <v>663</v>
       </c>
       <c r="D463">
-        <v>526</v>
+        <v>774</v>
       </c>
       <c r="F463" t="s">
         <v>684</v>
@@ -11535,7 +11535,7 @@
         <v>663</v>
       </c>
       <c r="D464">
-        <v>664</v>
+        <v>982</v>
       </c>
       <c r="F464" t="s">
         <v>684</v>
@@ -11555,7 +11555,7 @@
         <v>664</v>
       </c>
       <c r="D465">
-        <v>735</v>
+        <v>938</v>
       </c>
       <c r="F465" t="s">
         <v>684</v>
@@ -11575,7 +11575,7 @@
         <v>664</v>
       </c>
       <c r="D466">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="F466" t="s">
         <v>684</v>
@@ -11595,7 +11595,7 @@
         <v>665</v>
       </c>
       <c r="D467">
-        <v>993</v>
+        <v>931</v>
       </c>
       <c r="F467" t="s">
         <v>684</v>
@@ -11615,7 +11615,7 @@
         <v>665</v>
       </c>
       <c r="D468">
-        <v>972</v>
+        <v>921</v>
       </c>
       <c r="F468" t="s">
         <v>684</v>
@@ -11635,7 +11635,7 @@
         <v>666</v>
       </c>
       <c r="D469">
-        <v>705</v>
+        <v>659</v>
       </c>
       <c r="F469" t="s">
         <v>684</v>
@@ -11655,7 +11655,7 @@
         <v>666</v>
       </c>
       <c r="D470">
-        <v>734</v>
+        <v>861</v>
       </c>
       <c r="F470" t="s">
         <v>684</v>
@@ -11675,7 +11675,7 @@
         <v>667</v>
       </c>
       <c r="D471">
-        <v>835</v>
+        <v>570</v>
       </c>
       <c r="F471" t="s">
         <v>684</v>
@@ -11695,7 +11695,7 @@
         <v>667</v>
       </c>
       <c r="D472">
-        <v>683</v>
+        <v>836</v>
       </c>
       <c r="F472" t="s">
         <v>684</v>
@@ -11715,7 +11715,7 @@
         <v>668</v>
       </c>
       <c r="D473">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="F473" t="s">
         <v>684</v>
@@ -11755,7 +11755,7 @@
         <v>669</v>
       </c>
       <c r="D475">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="F475" t="s">
         <v>684</v>
@@ -11775,7 +11775,7 @@
         <v>669</v>
       </c>
       <c r="D476">
-        <v>506</v>
+        <v>825</v>
       </c>
       <c r="F476" t="s">
         <v>684</v>
@@ -11829,7 +11829,7 @@
         <v>671</v>
       </c>
       <c r="D479">
-        <v>757</v>
+        <v>704</v>
       </c>
       <c r="F479" t="s">
         <v>684</v>
@@ -11849,7 +11849,7 @@
         <v>671</v>
       </c>
       <c r="D480">
-        <v>524</v>
+        <v>822</v>
       </c>
       <c r="F480" t="s">
         <v>684</v>
@@ -11869,7 +11869,7 @@
         <v>672</v>
       </c>
       <c r="D481">
-        <v>680</v>
+        <v>971</v>
       </c>
       <c r="F481" t="s">
         <v>684</v>
@@ -11889,7 +11889,7 @@
         <v>672</v>
       </c>
       <c r="D482">
-        <v>519</v>
+        <v>714</v>
       </c>
       <c r="F482" t="s">
         <v>684</v>
@@ -11909,7 +11909,7 @@
         <v>673</v>
       </c>
       <c r="D483">
-        <v>788</v>
+        <v>648</v>
       </c>
       <c r="F483" t="s">
         <v>684</v>
@@ -11929,7 +11929,7 @@
         <v>673</v>
       </c>
       <c r="D484">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="F484" t="s">
         <v>684</v>
@@ -11949,7 +11949,7 @@
         <v>674</v>
       </c>
       <c r="D485">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="F485" t="s">
         <v>684</v>
@@ -11969,7 +11969,7 @@
         <v>674</v>
       </c>
       <c r="D486">
-        <v>762</v>
+        <v>716</v>
       </c>
       <c r="F486" t="s">
         <v>684</v>
@@ -11989,7 +11989,7 @@
         <v>675</v>
       </c>
       <c r="D487">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="F487" t="s">
         <v>684</v>
@@ -12009,7 +12009,7 @@
         <v>675</v>
       </c>
       <c r="D488">
-        <v>537</v>
+        <v>798</v>
       </c>
       <c r="F488" t="s">
         <v>684</v>
@@ -12029,7 +12029,7 @@
         <v>676</v>
       </c>
       <c r="D489">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="F489" t="s">
         <v>684</v>
@@ -12049,7 +12049,7 @@
         <v>676</v>
       </c>
       <c r="D490">
-        <v>569</v>
+        <v>705</v>
       </c>
       <c r="F490" t="s">
         <v>684</v>
@@ -12069,7 +12069,7 @@
         <v>677</v>
       </c>
       <c r="D491">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c r="F491" t="s">
         <v>684</v>
@@ -12089,7 +12089,7 @@
         <v>677</v>
       </c>
       <c r="D492">
-        <v>708</v>
+        <v>830</v>
       </c>
       <c r="F492" t="s">
         <v>684</v>
@@ -12109,7 +12109,7 @@
         <v>678</v>
       </c>
       <c r="D493">
-        <v>912</v>
+        <v>747</v>
       </c>
       <c r="F493" t="s">
         <v>684</v>
@@ -12129,7 +12129,7 @@
         <v>678</v>
       </c>
       <c r="D494">
-        <v>986</v>
+        <v>765</v>
       </c>
       <c r="F494" t="s">
         <v>684</v>
@@ -12183,7 +12183,7 @@
         <v>680</v>
       </c>
       <c r="D497">
-        <v>906</v>
+        <v>838</v>
       </c>
       <c r="F497" t="s">
         <v>684</v>
@@ -12203,7 +12203,7 @@
         <v>680</v>
       </c>
       <c r="D498">
-        <v>781</v>
+        <v>655</v>
       </c>
       <c r="F498" t="s">
         <v>684</v>
@@ -12223,7 +12223,7 @@
         <v>681</v>
       </c>
       <c r="D499">
-        <v>787</v>
+        <v>970</v>
       </c>
       <c r="F499" t="s">
         <v>684</v>
@@ -12243,7 +12243,7 @@
         <v>681</v>
       </c>
       <c r="D500">
-        <v>908</v>
+        <v>583</v>
       </c>
       <c r="F500" t="s">
         <v>684</v>
@@ -12263,7 +12263,7 @@
         <v>682</v>
       </c>
       <c r="D501">
-        <v>766</v>
+        <v>605</v>
       </c>
       <c r="F501" t="s">
         <v>684</v>
@@ -12283,7 +12283,7 @@
         <v>682</v>
       </c>
       <c r="D502">
-        <v>619</v>
+        <v>674</v>
       </c>
       <c r="F502" t="s">
         <v>684</v>
@@ -12303,7 +12303,7 @@
         <v>683</v>
       </c>
       <c r="D503">
-        <v>529</v>
+        <v>884</v>
       </c>
       <c r="F503" t="s">
         <v>684</v>
@@ -12323,7 +12323,7 @@
         <v>683</v>
       </c>
       <c r="D504">
-        <v>761</v>
+        <v>594</v>
       </c>
       <c r="F504" t="s">
         <v>684</v>
